--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -21,11 +21,11 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$AF$1:$AF$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="reassemblypostbinning">'cv_sample'!$AJ$1:$AJ$2</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$BJ$1:$BJ$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="682">
   <si>
     <t>alias</t>
   </si>
@@ -454,6 +454,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -553,6 +565,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -670,6 +700,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -677,6 +710,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2589,10 +2625,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2633,10 +2669,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2699,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2683,7 +2719,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2700,7 +2736,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2717,7 +2753,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2734,7 +2770,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2751,7 +2787,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2768,7 +2804,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2785,7 +2821,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2802,7 +2838,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2819,7 +2855,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2833,7 +2869,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2847,7 +2883,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2861,7 +2897,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2875,7 +2911,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2885,8 +2921,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2896,8 +2935,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2907,8 +2949,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2918,8 +2963,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2930,7 +2978,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2941,7 +2989,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2952,7 +3000,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2963,7 +3011,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2974,7 +3022,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2985,7 +3033,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2996,7 +3044,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3007,7 +3055,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3018,7 +3066,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3029,7 +3077,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3040,7 +3088,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3051,7 +3099,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3062,7 +3110,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3073,7 +3121,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3081,7 +3129,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3089,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3097,7 +3145,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3105,7 +3153,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3113,7 +3161,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3121,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3129,7 +3177,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3137,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3145,7 +3193,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3153,176 +3201,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3347,27 +3435,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3390,122 +3478,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3532,372 +3620,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3935,1485 +4023,1485 @@
   <sheetData>
     <row r="1" spans="25:62">
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AF1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AJ1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AL1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AS1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BJ1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="25:62">
       <c r="Y2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AF2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AJ2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AL2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AS2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BJ2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="25:62">
       <c r="AL3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AS3" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BJ3" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="25:62">
       <c r="AS4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BJ4" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="25:62">
       <c r="AS5" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BJ5" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="25:62">
       <c r="AS6" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BJ6" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="25:62">
       <c r="AS7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BJ7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="25:62">
       <c r="AS8" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="25:62">
       <c r="AS9" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="25:62">
       <c r="AS10" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="25:62">
       <c r="AS11" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="25:62">
       <c r="AS12" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="25:62">
       <c r="AS13" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="25:62">
       <c r="AS14" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="25:62">
       <c r="AS15" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="25:62">
       <c r="AS16" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="45:45">
       <c r="AS17" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="45:45">
       <c r="AS18" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="45:45">
       <c r="AS19" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="45:45">
       <c r="AS20" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="45:45">
       <c r="AS21" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="45:45">
       <c r="AS22" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="45:45">
       <c r="AS23" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="45:45">
       <c r="AS24" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="45:45">
       <c r="AS25" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="45:45">
       <c r="AS26" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="45:45">
       <c r="AS27" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="45:45">
       <c r="AS28" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="45:45">
       <c r="AS29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="45:45">
       <c r="AS30" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="45:45">
       <c r="AS31" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="45:45">
       <c r="AS32" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="45:45">
       <c r="AS33" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="45:45">
       <c r="AS34" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="45:45">
       <c r="AS35" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="45:45">
       <c r="AS36" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="45:45">
       <c r="AS37" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="45:45">
       <c r="AS38" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="45:45">
       <c r="AS39" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="45:45">
       <c r="AS40" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="45:45">
       <c r="AS41" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="45:45">
       <c r="AS42" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="45:45">
       <c r="AS43" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="45:45">
       <c r="AS44" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="AS45" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="45:45">
       <c r="AS46" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="45:45">
       <c r="AS47" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="45:45">
       <c r="AS48" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="45:45">
       <c r="AS49" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="45:45">
       <c r="AS50" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="45:45">
       <c r="AS51" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="45:45">
       <c r="AS52" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="45:45">
       <c r="AS53" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="45:45">
       <c r="AS54" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="45:45">
       <c r="AS55" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="45:45">
       <c r="AS56" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="45:45">
       <c r="AS57" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="45:45">
       <c r="AS58" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="45:45">
       <c r="AS59" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="45:45">
       <c r="AS60" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="45:45">
       <c r="AS61" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="45:45">
       <c r="AS62" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="45:45">
       <c r="AS63" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="45:45">
       <c r="AS64" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="45:45">
       <c r="AS65" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="45:45">
       <c r="AS66" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="45:45">
       <c r="AS67" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="45:45">
       <c r="AS68" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="45:45">
       <c r="AS69" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="45:45">
       <c r="AS70" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="45:45">
       <c r="AS71" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="45:45">
       <c r="AS72" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="45:45">
       <c r="AS73" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="45:45">
       <c r="AS74" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="45:45">
       <c r="AS75" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="45:45">
       <c r="AS76" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="45:45">
       <c r="AS77" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="45:45">
       <c r="AS78" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="45:45">
       <c r="AS79" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="45:45">
       <c r="AS80" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="45:45">
       <c r="AS81" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="45:45">
       <c r="AS82" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="45:45">
       <c r="AS83" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="45:45">
       <c r="AS84" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="45:45">
       <c r="AS85" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="45:45">
       <c r="AS86" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="45:45">
       <c r="AS87" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="45:45">
       <c r="AS88" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="45:45">
       <c r="AS89" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="45:45">
       <c r="AS90" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="45:45">
       <c r="AS91" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="45:45">
       <c r="AS92" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="45:45">
       <c r="AS93" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="45:45">
       <c r="AS94" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="45:45">
       <c r="AS95" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="45:45">
       <c r="AS96" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="45:45">
       <c r="AS97" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="45:45">
       <c r="AS98" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="45:45">
       <c r="AS99" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="45:45">
       <c r="AS100" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="45:45">
       <c r="AS101" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="45:45">
       <c r="AS102" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="45:45">
       <c r="AS103" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="45:45">
       <c r="AS104" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="45:45">
       <c r="AS105" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="45:45">
       <c r="AS106" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="45:45">
       <c r="AS107" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="45:45">
       <c r="AS108" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="45:45">
       <c r="AS109" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="45:45">
       <c r="AS110" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="45:45">
       <c r="AS111" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="45:45">
       <c r="AS112" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="45:45">
       <c r="AS113" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="45:45">
       <c r="AS114" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="45:45">
       <c r="AS115" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="45:45">
       <c r="AS116" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="45:45">
       <c r="AS117" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="45:45">
       <c r="AS118" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="45:45">
       <c r="AS119" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="45:45">
       <c r="AS120" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="45:45">
       <c r="AS121" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="45:45">
       <c r="AS122" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="45:45">
       <c r="AS123" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="45:45">
       <c r="AS124" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="45:45">
       <c r="AS125" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="45:45">
       <c r="AS126" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="45:45">
       <c r="AS127" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="45:45">
       <c r="AS128" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="45:45">
       <c r="AS129" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="45:45">
       <c r="AS130" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="45:45">
       <c r="AS131" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="45:45">
       <c r="AS132" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="45:45">
       <c r="AS133" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="45:45">
       <c r="AS134" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="45:45">
       <c r="AS135" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="45:45">
       <c r="AS136" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="45:45">
       <c r="AS137" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="45:45">
       <c r="AS138" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="45:45">
       <c r="AS139" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="45:45">
       <c r="AS140" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="45:45">
       <c r="AS141" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="45:45">
       <c r="AS142" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="45:45">
       <c r="AS143" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="45:45">
       <c r="AS144" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="45:45">
       <c r="AS145" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="45:45">
       <c r="AS146" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="45:45">
       <c r="AS147" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="45:45">
       <c r="AS148" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="45:45">
       <c r="AS149" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="45:45">
       <c r="AS150" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="45:45">
       <c r="AS151" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="45:45">
       <c r="AS152" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153" spans="45:45">
       <c r="AS153" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="45:45">
       <c r="AS154" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="45:45">
       <c r="AS155" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="45:45">
       <c r="AS156" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="45:45">
       <c r="AS157" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="45:45">
       <c r="AS158" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="45:45">
       <c r="AS159" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="160" spans="45:45">
       <c r="AS160" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="45:45">
       <c r="AS161" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="45:45">
       <c r="AS162" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="163" spans="45:45">
       <c r="AS163" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="164" spans="45:45">
       <c r="AS164" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="45:45">
       <c r="AS165" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="45:45">
       <c r="AS166" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="45:45">
       <c r="AS167" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="45:45">
       <c r="AS168" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="45:45">
       <c r="AS169" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="45:45">
       <c r="AS170" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="45:45">
       <c r="AS171" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="45:45">
       <c r="AS172" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="45:45">
       <c r="AS173" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="45:45">
       <c r="AS174" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="45:45">
       <c r="AS175" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="45:45">
       <c r="AS176" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="45:45">
       <c r="AS177" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" spans="45:45">
       <c r="AS178" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" spans="45:45">
       <c r="AS179" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="45:45">
       <c r="AS180" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="181" spans="45:45">
       <c r="AS181" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="45:45">
       <c r="AS182" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183" spans="45:45">
       <c r="AS183" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="184" spans="45:45">
       <c r="AS184" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="185" spans="45:45">
       <c r="AS185" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="186" spans="45:45">
       <c r="AS186" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="45:45">
       <c r="AS187" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="188" spans="45:45">
       <c r="AS188" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="45:45">
       <c r="AS189" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" spans="45:45">
       <c r="AS190" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="191" spans="45:45">
       <c r="AS191" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="45:45">
       <c r="AS192" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="193" spans="45:45">
       <c r="AS193" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="45:45">
       <c r="AS194" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="45:45">
       <c r="AS195" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="45:45">
       <c r="AS196" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="45:45">
       <c r="AS197" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="45:45">
       <c r="AS198" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="199" spans="45:45">
       <c r="AS199" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="45:45">
       <c r="AS200" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="45:45">
       <c r="AS201" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="45:45">
       <c r="AS202" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="45:45">
       <c r="AS203" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="45:45">
       <c r="AS204" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="45:45">
       <c r="AS205" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="45:45">
       <c r="AS206" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="207" spans="45:45">
       <c r="AS207" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="208" spans="45:45">
       <c r="AS208" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="209" spans="45:45">
       <c r="AS209" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="210" spans="45:45">
       <c r="AS210" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="45:45">
       <c r="AS211" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="45:45">
       <c r="AS212" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" spans="45:45">
       <c r="AS213" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="45:45">
       <c r="AS214" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="215" spans="45:45">
       <c r="AS215" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="45:45">
       <c r="AS216" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="217" spans="45:45">
       <c r="AS217" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="218" spans="45:45">
       <c r="AS218" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="45:45">
       <c r="AS219" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="45:45">
       <c r="AS220" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="45:45">
       <c r="AS221" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="45:45">
       <c r="AS222" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="45:45">
       <c r="AS223" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="224" spans="45:45">
       <c r="AS224" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="225" spans="45:45">
       <c r="AS225" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="45:45">
       <c r="AS226" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="45:45">
       <c r="AS227" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228" spans="45:45">
       <c r="AS228" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="45:45">
       <c r="AS229" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="230" spans="45:45">
       <c r="AS230" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="45:45">
       <c r="AS231" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" spans="45:45">
       <c r="AS232" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="45:45">
       <c r="AS233" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="234" spans="45:45">
       <c r="AS234" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="235" spans="45:45">
       <c r="AS235" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="45:45">
       <c r="AS236" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="45:45">
       <c r="AS237" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="238" spans="45:45">
       <c r="AS238" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="239" spans="45:45">
       <c r="AS239" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="240" spans="45:45">
       <c r="AS240" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="241" spans="45:45">
       <c r="AS241" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="242" spans="45:45">
       <c r="AS242" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="45:45">
       <c r="AS243" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="45:45">
       <c r="AS244" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="45:45">
       <c r="AS245" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="45:45">
       <c r="AS246" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="45:45">
       <c r="AS247" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="45:45">
       <c r="AS248" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="45:45">
       <c r="AS249" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="45:45">
       <c r="AS250" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" spans="45:45">
       <c r="AS251" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="252" spans="45:45">
       <c r="AS252" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="45:45">
       <c r="AS253" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="45:45">
       <c r="AS254" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="45:45">
       <c r="AS255" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="45:45">
       <c r="AS256" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="45:45">
       <c r="AS257" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="45:45">
       <c r="AS258" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="259" spans="45:45">
       <c r="AS259" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="45:45">
       <c r="AS260" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="261" spans="45:45">
       <c r="AS261" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="262" spans="45:45">
       <c r="AS262" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="45:45">
       <c r="AS263" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="264" spans="45:45">
       <c r="AS264" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="265" spans="45:45">
       <c r="AS265" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="45:45">
       <c r="AS266" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="267" spans="45:45">
       <c r="AS267" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="268" spans="45:45">
       <c r="AS268" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" spans="45:45">
       <c r="AS269" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="270" spans="45:45">
       <c r="AS270" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271" spans="45:45">
       <c r="AS271" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272" spans="45:45">
       <c r="AS272" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="273" spans="45:45">
       <c r="AS273" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="274" spans="45:45">
       <c r="AS274" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="275" spans="45:45">
       <c r="AS275" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="45:45">
       <c r="AS276" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" spans="45:45">
       <c r="AS277" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="278" spans="45:45">
       <c r="AS278" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="279" spans="45:45">
       <c r="AS279" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="45:45">
       <c r="AS280" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="45:45">
       <c r="AS281" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="282" spans="45:45">
       <c r="AS282" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="283" spans="45:45">
       <c r="AS283" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="45:45">
       <c r="AS284" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="285" spans="45:45">
       <c r="AS285" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="286" spans="45:45">
       <c r="AS286" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="287" spans="45:45">
       <c r="AS287" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -979,8 +979,7 @@
     <t>completeness score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. Units: 
-                    </t>
+    <t>(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
     <t>completeness software</t>
@@ -998,8 +997,7 @@
     <t>contamination score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. Units: 
-                    </t>
+    <t>(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
   </si>
   <si>
     <t>contigs</t>
@@ -1035,8 +1033,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? Units: 
-                    </t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1093,8 +1090,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1967,15 +1963,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1987,8 +1981,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -2012,8 +2005,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -2031,8 +2023,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>size fraction selected</t>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -103,7 +103,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -17,17 +17,17 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AL$1:$AL$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$AF$1:$AF$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AD$1:$AD$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$AJ$1:$AJ$2</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$BJ$1:$BJ$7</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$AB$1:$AB$2</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="683">
   <si>
     <t>alias</t>
   </si>
@@ -832,28 +832,1198 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>aerobe</t>
+  </si>
+  <si>
+    <t>anaerobe</t>
+  </si>
+  <si>
+    <t>facultative</t>
+  </si>
+  <si>
+    <t>microaerophilic</t>
+  </si>
+  <si>
+    <t>microanaerobe</t>
+  </si>
+  <si>
+    <t>obligate aerobe</t>
+  </si>
+  <si>
+    <t>obligate anaerobe</t>
+  </si>
+  <si>
+    <t>relationship to oxygen</t>
+  </si>
+  <si>
+    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+  </si>
+  <si>
+    <t>sample collection device</t>
+  </si>
+  <si>
+    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>metagenomic source</t>
+  </si>
+  <si>
+    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
+  </si>
+  <si>
+    <t>sample derived from</t>
+  </si>
+  <si>
+    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
+    <t>multiplex identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+  </si>
+  <si>
+    <t>relevant electronic resources</t>
+  </si>
+  <si>
+    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>relevant standard operating procedures</t>
+  </si>
+  <si>
+    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>number of standard tRNAs extracted</t>
+  </si>
+  <si>
+    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
+  </si>
+  <si>
+    <t>feature prediction</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>similarity search method</t>
+  </si>
+  <si>
+    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>16s recovered</t>
+  </si>
+  <si>
+    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
+  </si>
+  <si>
+    <t>16S recovery software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>tRNA extraction software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>completeness score</t>
+  </si>
+  <si>
+    <t>(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
+  </si>
+  <si>
+    <t>completeness software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>completeness approach</t>
+  </si>
+  <si>
+    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
+  </si>
+  <si>
+    <t>contamination score</t>
+  </si>
+  <si>
+    <t>(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
+  </si>
+  <si>
+    <t>contigs</t>
+  </si>
+  <si>
+    <t>reads</t>
+  </si>
+  <si>
+    <t>contamination screening input</t>
+  </si>
+  <si>
+    <t>(Optional) The type of sequence data used as input</t>
+  </si>
+  <si>
+    <t>contamination screening parameters</t>
+  </si>
+  <si>
+    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
+  </si>
+  <si>
+    <t>decontamination software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used in contamination screening</t>
+  </si>
+  <si>
+    <t>binning software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
+  </si>
+  <si>
+    <t>reassembly post binning</t>
+  </si>
+  <si>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+  </si>
+  <si>
+    <t>MAG coverage software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
+  </si>
+  <si>
+    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
+  </si>
+  <si>
+    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
+  </si>
+  <si>
+    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
+  </si>
+  <si>
+    <t>assembly quality</t>
+  </si>
+  <si>
+    <t>(Mandatory) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
+  </si>
+  <si>
+    <t>binning parameters</t>
+  </si>
+  <si>
+    <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
+  </si>
+  <si>
+    <t>taxonomic identity marker</t>
+  </si>
+  <si>
+    <t>(Mandatory) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
+    <t>source material identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
+  </si>
+  <si>
     <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
+    <t>taxonomic classification</t>
+  </si>
+  <si>
+    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
+  </si>
+  <si>
+    <t>annotation source</t>
+  </si>
+  <si>
+    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+  </si>
+  <si>
     <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>annotation source</t>
-  </si>
-  <si>
-    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+    <t>reference database(s)</t>
+  </si>
+  <si>
+    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
+  </si>
+  <si>
+    <t>sample material processing</t>
+  </si>
+  <si>
+    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -892,10 +2062,10 @@
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+    <t>assembly software</t>
+  </si>
+  <si>
+    <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
   </si>
   <si>
     <t>adapters</t>
@@ -910,1177 +2080,10 @@
     <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
-  </si>
-  <si>
-    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>relevant standard operating procedures</t>
-  </si>
-  <si>
-    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>number of standard tRNAs extracted</t>
-  </si>
-  <si>
-    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
-  </si>
-  <si>
-    <t>assembly software</t>
-  </si>
-  <si>
-    <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
-  </si>
-  <si>
-    <t>feature prediction</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>reference database(s)</t>
-  </si>
-  <si>
-    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
-  </si>
-  <si>
-    <t>similarity search method</t>
-  </si>
-  <si>
-    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>16S recovered</t>
-  </si>
-  <si>
-    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
-  </si>
-  <si>
-    <t>16S recovery software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>tRNA extraction software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>completeness score</t>
-  </si>
-  <si>
-    <t>(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
-  </si>
-  <si>
-    <t>completeness software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>completeness approach</t>
-  </si>
-  <si>
-    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
-  </si>
-  <si>
-    <t>contamination score</t>
-  </si>
-  <si>
-    <t>(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
-  </si>
-  <si>
-    <t>contigs</t>
-  </si>
-  <si>
-    <t>reads</t>
-  </si>
-  <si>
-    <t>contamination screening input</t>
-  </si>
-  <si>
-    <t>(Optional) The type of sequence data used as input</t>
-  </si>
-  <si>
-    <t>contamination screening parameters</t>
-  </si>
-  <si>
-    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
-  </si>
-  <si>
-    <t>decontamination software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used in contamination screening</t>
-  </si>
-  <si>
-    <t>binning software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
-  </si>
-  <si>
-    <t>reassembly post binning</t>
-  </si>
-  <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
-  </si>
-  <si>
-    <t>MAG coverage software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
-  </si>
-  <si>
-    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
-  </si>
-  <si>
-    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
-  </si>
-  <si>
-    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
-  </si>
-  <si>
-    <t>assembly quality</t>
-  </si>
-  <si>
-    <t>(Mandatory) Assembly quality is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. in sags, assembly quality is mandatory for prokaryotes and optional for eukaryotes.</t>
-  </si>
-  <si>
-    <t>binning parameters</t>
-  </si>
-  <si>
-    <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
-  </si>
-  <si>
-    <t>taxonomic identity marker</t>
-  </si>
-  <si>
-    <t>(Mandatory) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>taxonomic classification</t>
-  </si>
-  <si>
-    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>source material identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
-  </si>
-  <si>
-    <t>sample material processing</t>
-  </si>
-  <si>
-    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
-  </si>
-  <si>
-    <t>sample derived from</t>
-  </si>
-  <si>
-    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
-  </si>
-  <si>
-    <t>metagenomic source</t>
-  </si>
-  <si>
-    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
-  </si>
-  <si>
-    <t>sample collection device</t>
-  </si>
-  <si>
-    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
-  </si>
-  <si>
-    <t>sample collection method</t>
-  </si>
-  <si>
-    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
-  </si>
-  <si>
-    <t>aerobe</t>
-  </si>
-  <si>
-    <t>anaerobe</t>
-  </si>
-  <si>
-    <t>facultative</t>
-  </si>
-  <si>
-    <t>microaerophilic</t>
-  </si>
-  <si>
-    <t>microanaerobe</t>
-  </si>
-  <si>
-    <t>obligate aerobe</t>
-  </si>
-  <si>
-    <t>obligate anaerobe</t>
-  </si>
-  <si>
-    <t>relationship to oxygen</t>
-  </si>
-  <si>
-    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3617,178 +3620,178 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>331</v>
+        <v>629</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>333</v>
+        <v>631</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>338</v>
+        <v>633</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>340</v>
+        <v>635</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>342</v>
+        <v>637</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>344</v>
+        <v>639</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>346</v>
+        <v>641</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>348</v>
+        <v>643</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>350</v>
+        <v>645</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
@@ -3805,199 +3808,199 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>332</v>
+        <v>630</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>334</v>
+        <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>339</v>
+        <v>634</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>341</v>
+        <v>636</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>343</v>
+        <v>638</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>345</v>
+        <v>640</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>347</v>
+        <v>642</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>349</v>
+        <v>644</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>351</v>
+        <v>646</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
-      <formula1>16Srecovered</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+      <formula1>16srecovered</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>contaminationscreeninginput</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
-      <formula1>relationshiptooxygen</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4006,1493 +4009,1498 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Y1:BJ287"/>
+  <dimension ref="E1:AJ288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="25:62">
-      <c r="Y1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>321</v>
+    <row r="1" spans="5:36">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>326</v>
       </c>
       <c r="AJ1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AS1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="5:36">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>297</v>
+      </c>
+      <c r="X2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="5:36">
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="5:36">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="5:36">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="5:36">
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="5:36">
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="5:36">
+      <c r="AJ8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="5:36">
+      <c r="AJ9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="5:36">
+      <c r="AJ10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="5:36">
+      <c r="AJ11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="5:36">
+      <c r="AJ12" t="s">
         <v>352</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="2" spans="25:62">
-      <c r="Y2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AS2" t="s">
+    </row>
+    <row r="13" spans="5:36">
+      <c r="AJ13" t="s">
         <v>353</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="3" spans="25:62">
-      <c r="AL3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AS3" t="s">
+    </row>
+    <row r="14" spans="5:36">
+      <c r="AJ14" t="s">
         <v>354</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="25:62">
-      <c r="AS4" t="s">
+    </row>
+    <row r="15" spans="5:36">
+      <c r="AJ15" t="s">
         <v>355</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="25:62">
-      <c r="AS5" t="s">
+    </row>
+    <row r="16" spans="5:36">
+      <c r="AJ16" t="s">
         <v>356</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="25:62">
-      <c r="AS6" t="s">
+    </row>
+    <row r="17" spans="36:36">
+      <c r="AJ17" t="s">
         <v>357</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="25:62">
-      <c r="AS7" t="s">
+    </row>
+    <row r="18" spans="36:36">
+      <c r="AJ18" t="s">
         <v>358</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="8" spans="25:62">
-      <c r="AS8" t="s">
+    </row>
+    <row r="19" spans="36:36">
+      <c r="AJ19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="25:62">
-      <c r="AS9" t="s">
+    <row r="20" spans="36:36">
+      <c r="AJ20" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="25:62">
-      <c r="AS10" t="s">
+    <row r="21" spans="36:36">
+      <c r="AJ21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="25:62">
-      <c r="AS11" t="s">
+    <row r="22" spans="36:36">
+      <c r="AJ22" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="25:62">
-      <c r="AS12" t="s">
+    <row r="23" spans="36:36">
+      <c r="AJ23" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="25:62">
-      <c r="AS13" t="s">
+    <row r="24" spans="36:36">
+      <c r="AJ24" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="25:62">
-      <c r="AS14" t="s">
+    <row r="25" spans="36:36">
+      <c r="AJ25" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="25:62">
-      <c r="AS15" t="s">
+    <row r="26" spans="36:36">
+      <c r="AJ26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="25:62">
-      <c r="AS16" t="s">
+    <row r="27" spans="36:36">
+      <c r="AJ27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="45:45">
-      <c r="AS17" t="s">
+    <row r="28" spans="36:36">
+      <c r="AJ28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="45:45">
-      <c r="AS18" t="s">
+    <row r="29" spans="36:36">
+      <c r="AJ29" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="45:45">
-      <c r="AS19" t="s">
+    <row r="30" spans="36:36">
+      <c r="AJ30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="45:45">
-      <c r="AS20" t="s">
+    <row r="31" spans="36:36">
+      <c r="AJ31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="45:45">
-      <c r="AS21" t="s">
+    <row r="32" spans="36:36">
+      <c r="AJ32" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="45:45">
-      <c r="AS22" t="s">
+    <row r="33" spans="36:36">
+      <c r="AJ33" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="45:45">
-      <c r="AS23" t="s">
+    <row r="34" spans="36:36">
+      <c r="AJ34" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="45:45">
-      <c r="AS24" t="s">
+    <row r="35" spans="36:36">
+      <c r="AJ35" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="45:45">
-      <c r="AS25" t="s">
+    <row r="36" spans="36:36">
+      <c r="AJ36" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="45:45">
-      <c r="AS26" t="s">
+    <row r="37" spans="36:36">
+      <c r="AJ37" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="45:45">
-      <c r="AS27" t="s">
+    <row r="38" spans="36:36">
+      <c r="AJ38" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="45:45">
-      <c r="AS28" t="s">
+    <row r="39" spans="36:36">
+      <c r="AJ39" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="45:45">
-      <c r="AS29" t="s">
+    <row r="40" spans="36:36">
+      <c r="AJ40" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="45:45">
-      <c r="AS30" t="s">
+    <row r="41" spans="36:36">
+      <c r="AJ41" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="45:45">
-      <c r="AS31" t="s">
+    <row r="42" spans="36:36">
+      <c r="AJ42" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="45:45">
-      <c r="AS32" t="s">
+    <row r="43" spans="36:36">
+      <c r="AJ43" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="45:45">
-      <c r="AS33" t="s">
+    <row r="44" spans="36:36">
+      <c r="AJ44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="45:45">
-      <c r="AS34" t="s">
+    <row r="45" spans="36:36">
+      <c r="AJ45" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="45:45">
-      <c r="AS35" t="s">
+    <row r="46" spans="36:36">
+      <c r="AJ46" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="45:45">
-      <c r="AS36" t="s">
+    <row r="47" spans="36:36">
+      <c r="AJ47" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="45:45">
-      <c r="AS37" t="s">
+    <row r="48" spans="36:36">
+      <c r="AJ48" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="45:45">
-      <c r="AS38" t="s">
+    <row r="49" spans="36:36">
+      <c r="AJ49" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="45:45">
-      <c r="AS39" t="s">
+    <row r="50" spans="36:36">
+      <c r="AJ50" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="45:45">
-      <c r="AS40" t="s">
+    <row r="51" spans="36:36">
+      <c r="AJ51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="45:45">
-      <c r="AS41" t="s">
+    <row r="52" spans="36:36">
+      <c r="AJ52" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="45:45">
-      <c r="AS42" t="s">
+    <row r="53" spans="36:36">
+      <c r="AJ53" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="45:45">
-      <c r="AS43" t="s">
+    <row r="54" spans="36:36">
+      <c r="AJ54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="45:45">
-      <c r="AS44" t="s">
+    <row r="55" spans="36:36">
+      <c r="AJ55" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="45:45">
-      <c r="AS45" t="s">
+    <row r="56" spans="36:36">
+      <c r="AJ56" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="45:45">
-      <c r="AS46" t="s">
+    <row r="57" spans="36:36">
+      <c r="AJ57" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="45:45">
-      <c r="AS47" t="s">
+    <row r="58" spans="36:36">
+      <c r="AJ58" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="45:45">
-      <c r="AS48" t="s">
+    <row r="59" spans="36:36">
+      <c r="AJ59" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="45:45">
-      <c r="AS49" t="s">
+    <row r="60" spans="36:36">
+      <c r="AJ60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="45:45">
-      <c r="AS50" t="s">
+    <row r="61" spans="36:36">
+      <c r="AJ61" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="45:45">
-      <c r="AS51" t="s">
+    <row r="62" spans="36:36">
+      <c r="AJ62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="45:45">
-      <c r="AS52" t="s">
+    <row r="63" spans="36:36">
+      <c r="AJ63" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="45:45">
-      <c r="AS53" t="s">
+    <row r="64" spans="36:36">
+      <c r="AJ64" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="45:45">
-      <c r="AS54" t="s">
+    <row r="65" spans="36:36">
+      <c r="AJ65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="45:45">
-      <c r="AS55" t="s">
+    <row r="66" spans="36:36">
+      <c r="AJ66" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="45:45">
-      <c r="AS56" t="s">
+    <row r="67" spans="36:36">
+      <c r="AJ67" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="45:45">
-      <c r="AS57" t="s">
+    <row r="68" spans="36:36">
+      <c r="AJ68" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="45:45">
-      <c r="AS58" t="s">
+    <row r="69" spans="36:36">
+      <c r="AJ69" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="45:45">
-      <c r="AS59" t="s">
+    <row r="70" spans="36:36">
+      <c r="AJ70" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="45:45">
-      <c r="AS60" t="s">
+    <row r="71" spans="36:36">
+      <c r="AJ71" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="45:45">
-      <c r="AS61" t="s">
+    <row r="72" spans="36:36">
+      <c r="AJ72" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="45:45">
-      <c r="AS62" t="s">
+    <row r="73" spans="36:36">
+      <c r="AJ73" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="45:45">
-      <c r="AS63" t="s">
+    <row r="74" spans="36:36">
+      <c r="AJ74" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="45:45">
-      <c r="AS64" t="s">
+    <row r="75" spans="36:36">
+      <c r="AJ75" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="45:45">
-      <c r="AS65" t="s">
+    <row r="76" spans="36:36">
+      <c r="AJ76" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="45:45">
-      <c r="AS66" t="s">
+    <row r="77" spans="36:36">
+      <c r="AJ77" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="45:45">
-      <c r="AS67" t="s">
+    <row r="78" spans="36:36">
+      <c r="AJ78" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="45:45">
-      <c r="AS68" t="s">
+    <row r="79" spans="36:36">
+      <c r="AJ79" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="45:45">
-      <c r="AS69" t="s">
+    <row r="80" spans="36:36">
+      <c r="AJ80" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="45:45">
-      <c r="AS70" t="s">
+    <row r="81" spans="36:36">
+      <c r="AJ81" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="45:45">
-      <c r="AS71" t="s">
+    <row r="82" spans="36:36">
+      <c r="AJ82" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="45:45">
-      <c r="AS72" t="s">
+    <row r="83" spans="36:36">
+      <c r="AJ83" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="45:45">
-      <c r="AS73" t="s">
+    <row r="84" spans="36:36">
+      <c r="AJ84" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="45:45">
-      <c r="AS74" t="s">
+    <row r="85" spans="36:36">
+      <c r="AJ85" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="45:45">
-      <c r="AS75" t="s">
+    <row r="86" spans="36:36">
+      <c r="AJ86" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="45:45">
-      <c r="AS76" t="s">
+    <row r="87" spans="36:36">
+      <c r="AJ87" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="45:45">
-      <c r="AS77" t="s">
+    <row r="88" spans="36:36">
+      <c r="AJ88" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="45:45">
-      <c r="AS78" t="s">
+    <row r="89" spans="36:36">
+      <c r="AJ89" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="45:45">
-      <c r="AS79" t="s">
+    <row r="90" spans="36:36">
+      <c r="AJ90" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="45:45">
-      <c r="AS80" t="s">
+    <row r="91" spans="36:36">
+      <c r="AJ91" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="45:45">
-      <c r="AS81" t="s">
+    <row r="92" spans="36:36">
+      <c r="AJ92" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="45:45">
-      <c r="AS82" t="s">
+    <row r="93" spans="36:36">
+      <c r="AJ93" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="45:45">
-      <c r="AS83" t="s">
+    <row r="94" spans="36:36">
+      <c r="AJ94" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="45:45">
-      <c r="AS84" t="s">
+    <row r="95" spans="36:36">
+      <c r="AJ95" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="45:45">
-      <c r="AS85" t="s">
+    <row r="96" spans="36:36">
+      <c r="AJ96" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="45:45">
-      <c r="AS86" t="s">
+    <row r="97" spans="36:36">
+      <c r="AJ97" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="45:45">
-      <c r="AS87" t="s">
+    <row r="98" spans="36:36">
+      <c r="AJ98" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="45:45">
-      <c r="AS88" t="s">
+    <row r="99" spans="36:36">
+      <c r="AJ99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="45:45">
-      <c r="AS89" t="s">
+    <row r="100" spans="36:36">
+      <c r="AJ100" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="45:45">
-      <c r="AS90" t="s">
+    <row r="101" spans="36:36">
+      <c r="AJ101" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="45:45">
-      <c r="AS91" t="s">
+    <row r="102" spans="36:36">
+      <c r="AJ102" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="45:45">
-      <c r="AS92" t="s">
+    <row r="103" spans="36:36">
+      <c r="AJ103" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="45:45">
-      <c r="AS93" t="s">
+    <row r="104" spans="36:36">
+      <c r="AJ104" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="45:45">
-      <c r="AS94" t="s">
+    <row r="105" spans="36:36">
+      <c r="AJ105" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="45:45">
-      <c r="AS95" t="s">
+    <row r="106" spans="36:36">
+      <c r="AJ106" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="45:45">
-      <c r="AS96" t="s">
+    <row r="107" spans="36:36">
+      <c r="AJ107" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="45:45">
-      <c r="AS97" t="s">
+    <row r="108" spans="36:36">
+      <c r="AJ108" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="45:45">
-      <c r="AS98" t="s">
+    <row r="109" spans="36:36">
+      <c r="AJ109" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="45:45">
-      <c r="AS99" t="s">
+    <row r="110" spans="36:36">
+      <c r="AJ110" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="45:45">
-      <c r="AS100" t="s">
+    <row r="111" spans="36:36">
+      <c r="AJ111" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="45:45">
-      <c r="AS101" t="s">
+    <row r="112" spans="36:36">
+      <c r="AJ112" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="45:45">
-      <c r="AS102" t="s">
+    <row r="113" spans="36:36">
+      <c r="AJ113" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="45:45">
-      <c r="AS103" t="s">
+    <row r="114" spans="36:36">
+      <c r="AJ114" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="45:45">
-      <c r="AS104" t="s">
+    <row r="115" spans="36:36">
+      <c r="AJ115" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="45:45">
-      <c r="AS105" t="s">
+    <row r="116" spans="36:36">
+      <c r="AJ116" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="45:45">
-      <c r="AS106" t="s">
+    <row r="117" spans="36:36">
+      <c r="AJ117" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="107" spans="45:45">
-      <c r="AS107" t="s">
+    <row r="118" spans="36:36">
+      <c r="AJ118" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="108" spans="45:45">
-      <c r="AS108" t="s">
+    <row r="119" spans="36:36">
+      <c r="AJ119" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="109" spans="45:45">
-      <c r="AS109" t="s">
+    <row r="120" spans="36:36">
+      <c r="AJ120" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="45:45">
-      <c r="AS110" t="s">
+    <row r="121" spans="36:36">
+      <c r="AJ121" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="45:45">
-      <c r="AS111" t="s">
+    <row r="122" spans="36:36">
+      <c r="AJ122" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="45:45">
-      <c r="AS112" t="s">
+    <row r="123" spans="36:36">
+      <c r="AJ123" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="45:45">
-      <c r="AS113" t="s">
+    <row r="124" spans="36:36">
+      <c r="AJ124" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="45:45">
-      <c r="AS114" t="s">
+    <row r="125" spans="36:36">
+      <c r="AJ125" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="45:45">
-      <c r="AS115" t="s">
+    <row r="126" spans="36:36">
+      <c r="AJ126" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="45:45">
-      <c r="AS116" t="s">
+    <row r="127" spans="36:36">
+      <c r="AJ127" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="45:45">
-      <c r="AS117" t="s">
+    <row r="128" spans="36:36">
+      <c r="AJ128" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="45:45">
-      <c r="AS118" t="s">
+    <row r="129" spans="36:36">
+      <c r="AJ129" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="45:45">
-      <c r="AS119" t="s">
+    <row r="130" spans="36:36">
+      <c r="AJ130" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="45:45">
-      <c r="AS120" t="s">
+    <row r="131" spans="36:36">
+      <c r="AJ131" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="121" spans="45:45">
-      <c r="AS121" t="s">
+    <row r="132" spans="36:36">
+      <c r="AJ132" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="45:45">
-      <c r="AS122" t="s">
+    <row r="133" spans="36:36">
+      <c r="AJ133" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="45:45">
-      <c r="AS123" t="s">
+    <row r="134" spans="36:36">
+      <c r="AJ134" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="45:45">
-      <c r="AS124" t="s">
+    <row r="135" spans="36:36">
+      <c r="AJ135" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="125" spans="45:45">
-      <c r="AS125" t="s">
+    <row r="136" spans="36:36">
+      <c r="AJ136" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="126" spans="45:45">
-      <c r="AS126" t="s">
+    <row r="137" spans="36:36">
+      <c r="AJ137" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="127" spans="45:45">
-      <c r="AS127" t="s">
+    <row r="138" spans="36:36">
+      <c r="AJ138" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="45:45">
-      <c r="AS128" t="s">
+    <row r="139" spans="36:36">
+      <c r="AJ139" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="45:45">
-      <c r="AS129" t="s">
+    <row r="140" spans="36:36">
+      <c r="AJ140" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="45:45">
-      <c r="AS130" t="s">
+    <row r="141" spans="36:36">
+      <c r="AJ141" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="131" spans="45:45">
-      <c r="AS131" t="s">
+    <row r="142" spans="36:36">
+      <c r="AJ142" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="45:45">
-      <c r="AS132" t="s">
+    <row r="143" spans="36:36">
+      <c r="AJ143" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="45:45">
-      <c r="AS133" t="s">
+    <row r="144" spans="36:36">
+      <c r="AJ144" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="134" spans="45:45">
-      <c r="AS134" t="s">
+    <row r="145" spans="36:36">
+      <c r="AJ145" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="135" spans="45:45">
-      <c r="AS135" t="s">
+    <row r="146" spans="36:36">
+      <c r="AJ146" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="136" spans="45:45">
-      <c r="AS136" t="s">
+    <row r="147" spans="36:36">
+      <c r="AJ147" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="137" spans="45:45">
-      <c r="AS137" t="s">
+    <row r="148" spans="36:36">
+      <c r="AJ148" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="138" spans="45:45">
-      <c r="AS138" t="s">
+    <row r="149" spans="36:36">
+      <c r="AJ149" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="139" spans="45:45">
-      <c r="AS139" t="s">
+    <row r="150" spans="36:36">
+      <c r="AJ150" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="140" spans="45:45">
-      <c r="AS140" t="s">
+    <row r="151" spans="36:36">
+      <c r="AJ151" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="141" spans="45:45">
-      <c r="AS141" t="s">
+    <row r="152" spans="36:36">
+      <c r="AJ152" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="45:45">
-      <c r="AS142" t="s">
+    <row r="153" spans="36:36">
+      <c r="AJ153" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="143" spans="45:45">
-      <c r="AS143" t="s">
+    <row r="154" spans="36:36">
+      <c r="AJ154" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="45:45">
-      <c r="AS144" t="s">
+    <row r="155" spans="36:36">
+      <c r="AJ155" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="145" spans="45:45">
-      <c r="AS145" t="s">
+    <row r="156" spans="36:36">
+      <c r="AJ156" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="45:45">
-      <c r="AS146" t="s">
+    <row r="157" spans="36:36">
+      <c r="AJ157" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="147" spans="45:45">
-      <c r="AS147" t="s">
+    <row r="158" spans="36:36">
+      <c r="AJ158" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="148" spans="45:45">
-      <c r="AS148" t="s">
+    <row r="159" spans="36:36">
+      <c r="AJ159" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="149" spans="45:45">
-      <c r="AS149" t="s">
+    <row r="160" spans="36:36">
+      <c r="AJ160" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="45:45">
-      <c r="AS150" t="s">
+    <row r="161" spans="36:36">
+      <c r="AJ161" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="151" spans="45:45">
-      <c r="AS151" t="s">
+    <row r="162" spans="36:36">
+      <c r="AJ162" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="45:45">
-      <c r="AS152" t="s">
+    <row r="163" spans="36:36">
+      <c r="AJ163" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="45:45">
-      <c r="AS153" t="s">
+    <row r="164" spans="36:36">
+      <c r="AJ164" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="45:45">
-      <c r="AS154" t="s">
+    <row r="165" spans="36:36">
+      <c r="AJ165" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="45:45">
-      <c r="AS155" t="s">
+    <row r="166" spans="36:36">
+      <c r="AJ166" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="45:45">
-      <c r="AS156" t="s">
+    <row r="167" spans="36:36">
+      <c r="AJ167" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="45:45">
-      <c r="AS157" t="s">
+    <row r="168" spans="36:36">
+      <c r="AJ168" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="158" spans="45:45">
-      <c r="AS158" t="s">
+    <row r="169" spans="36:36">
+      <c r="AJ169" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="45:45">
-      <c r="AS159" t="s">
+    <row r="170" spans="36:36">
+      <c r="AJ170" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="45:45">
-      <c r="AS160" t="s">
+    <row r="171" spans="36:36">
+      <c r="AJ171" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="161" spans="45:45">
-      <c r="AS161" t="s">
+    <row r="172" spans="36:36">
+      <c r="AJ172" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="162" spans="45:45">
-      <c r="AS162" t="s">
+    <row r="173" spans="36:36">
+      <c r="AJ173" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="45:45">
-      <c r="AS163" t="s">
+    <row r="174" spans="36:36">
+      <c r="AJ174" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="164" spans="45:45">
-      <c r="AS164" t="s">
+    <row r="175" spans="36:36">
+      <c r="AJ175" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="165" spans="45:45">
-      <c r="AS165" t="s">
+    <row r="176" spans="36:36">
+      <c r="AJ176" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="45:45">
-      <c r="AS166" t="s">
+    <row r="177" spans="36:36">
+      <c r="AJ177" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="45:45">
-      <c r="AS167" t="s">
+    <row r="178" spans="36:36">
+      <c r="AJ178" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="168" spans="45:45">
-      <c r="AS168" t="s">
+    <row r="179" spans="36:36">
+      <c r="AJ179" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="169" spans="45:45">
-      <c r="AS169" t="s">
+    <row r="180" spans="36:36">
+      <c r="AJ180" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="170" spans="45:45">
-      <c r="AS170" t="s">
+    <row r="181" spans="36:36">
+      <c r="AJ181" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="45:45">
-      <c r="AS171" t="s">
+    <row r="182" spans="36:36">
+      <c r="AJ182" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="45:45">
-      <c r="AS172" t="s">
+    <row r="183" spans="36:36">
+      <c r="AJ183" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="173" spans="45:45">
-      <c r="AS173" t="s">
+    <row r="184" spans="36:36">
+      <c r="AJ184" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="45:45">
-      <c r="AS174" t="s">
+    <row r="185" spans="36:36">
+      <c r="AJ185" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="175" spans="45:45">
-      <c r="AS175" t="s">
+    <row r="186" spans="36:36">
+      <c r="AJ186" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="45:45">
-      <c r="AS176" t="s">
+    <row r="187" spans="36:36">
+      <c r="AJ187" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="45:45">
-      <c r="AS177" t="s">
+    <row r="188" spans="36:36">
+      <c r="AJ188" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="45:45">
-      <c r="AS178" t="s">
+    <row r="189" spans="36:36">
+      <c r="AJ189" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="45:45">
-      <c r="AS179" t="s">
+    <row r="190" spans="36:36">
+      <c r="AJ190" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="45:45">
-      <c r="AS180" t="s">
+    <row r="191" spans="36:36">
+      <c r="AJ191" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="181" spans="45:45">
-      <c r="AS181" t="s">
+    <row r="192" spans="36:36">
+      <c r="AJ192" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="182" spans="45:45">
-      <c r="AS182" t="s">
+    <row r="193" spans="36:36">
+      <c r="AJ193" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="45:45">
-      <c r="AS183" t="s">
+    <row r="194" spans="36:36">
+      <c r="AJ194" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="184" spans="45:45">
-      <c r="AS184" t="s">
+    <row r="195" spans="36:36">
+      <c r="AJ195" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="185" spans="45:45">
-      <c r="AS185" t="s">
+    <row r="196" spans="36:36">
+      <c r="AJ196" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="45:45">
-      <c r="AS186" t="s">
+    <row r="197" spans="36:36">
+      <c r="AJ197" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="45:45">
-      <c r="AS187" t="s">
+    <row r="198" spans="36:36">
+      <c r="AJ198" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="45:45">
-      <c r="AS188" t="s">
+    <row r="199" spans="36:36">
+      <c r="AJ199" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="45:45">
-      <c r="AS189" t="s">
+    <row r="200" spans="36:36">
+      <c r="AJ200" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="190" spans="45:45">
-      <c r="AS190" t="s">
+    <row r="201" spans="36:36">
+      <c r="AJ201" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="191" spans="45:45">
-      <c r="AS191" t="s">
+    <row r="202" spans="36:36">
+      <c r="AJ202" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="45:45">
-      <c r="AS192" t="s">
+    <row r="203" spans="36:36">
+      <c r="AJ203" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="193" spans="45:45">
-      <c r="AS193" t="s">
+    <row r="204" spans="36:36">
+      <c r="AJ204" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="45:45">
-      <c r="AS194" t="s">
+    <row r="205" spans="36:36">
+      <c r="AJ205" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="195" spans="45:45">
-      <c r="AS195" t="s">
+    <row r="206" spans="36:36">
+      <c r="AJ206" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="45:45">
-      <c r="AS196" t="s">
+    <row r="207" spans="36:36">
+      <c r="AJ207" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="197" spans="45:45">
-      <c r="AS197" t="s">
+    <row r="208" spans="36:36">
+      <c r="AJ208" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="45:45">
-      <c r="AS198" t="s">
+    <row r="209" spans="36:36">
+      <c r="AJ209" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="45:45">
-      <c r="AS199" t="s">
+    <row r="210" spans="36:36">
+      <c r="AJ210" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="45:45">
-      <c r="AS200" t="s">
+    <row r="211" spans="36:36">
+      <c r="AJ211" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="201" spans="45:45">
-      <c r="AS201" t="s">
+    <row r="212" spans="36:36">
+      <c r="AJ212" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="202" spans="45:45">
-      <c r="AS202" t="s">
+    <row r="213" spans="36:36">
+      <c r="AJ213" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="203" spans="45:45">
-      <c r="AS203" t="s">
+    <row r="214" spans="36:36">
+      <c r="AJ214" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="204" spans="45:45">
-      <c r="AS204" t="s">
+    <row r="215" spans="36:36">
+      <c r="AJ215" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="205" spans="45:45">
-      <c r="AS205" t="s">
+    <row r="216" spans="36:36">
+      <c r="AJ216" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="206" spans="45:45">
-      <c r="AS206" t="s">
+    <row r="217" spans="36:36">
+      <c r="AJ217" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="207" spans="45:45">
-      <c r="AS207" t="s">
+    <row r="218" spans="36:36">
+      <c r="AJ218" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="208" spans="45:45">
-      <c r="AS208" t="s">
+    <row r="219" spans="36:36">
+      <c r="AJ219" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="209" spans="45:45">
-      <c r="AS209" t="s">
+    <row r="220" spans="36:36">
+      <c r="AJ220" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="210" spans="45:45">
-      <c r="AS210" t="s">
+    <row r="221" spans="36:36">
+      <c r="AJ221" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="211" spans="45:45">
-      <c r="AS211" t="s">
+    <row r="222" spans="36:36">
+      <c r="AJ222" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="212" spans="45:45">
-      <c r="AS212" t="s">
+    <row r="223" spans="36:36">
+      <c r="AJ223" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="213" spans="45:45">
-      <c r="AS213" t="s">
+    <row r="224" spans="36:36">
+      <c r="AJ224" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="45:45">
-      <c r="AS214" t="s">
+    <row r="225" spans="36:36">
+      <c r="AJ225" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="45:45">
-      <c r="AS215" t="s">
+    <row r="226" spans="36:36">
+      <c r="AJ226" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="216" spans="45:45">
-      <c r="AS216" t="s">
+    <row r="227" spans="36:36">
+      <c r="AJ227" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="217" spans="45:45">
-      <c r="AS217" t="s">
+    <row r="228" spans="36:36">
+      <c r="AJ228" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="218" spans="45:45">
-      <c r="AS218" t="s">
+    <row r="229" spans="36:36">
+      <c r="AJ229" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="45:45">
-      <c r="AS219" t="s">
+    <row r="230" spans="36:36">
+      <c r="AJ230" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="220" spans="45:45">
-      <c r="AS220" t="s">
+    <row r="231" spans="36:36">
+      <c r="AJ231" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="221" spans="45:45">
-      <c r="AS221" t="s">
+    <row r="232" spans="36:36">
+      <c r="AJ232" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="222" spans="45:45">
-      <c r="AS222" t="s">
+    <row r="233" spans="36:36">
+      <c r="AJ233" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="45:45">
-      <c r="AS223" t="s">
+    <row r="234" spans="36:36">
+      <c r="AJ234" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="224" spans="45:45">
-      <c r="AS224" t="s">
+    <row r="235" spans="36:36">
+      <c r="AJ235" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="225" spans="45:45">
-      <c r="AS225" t="s">
+    <row r="236" spans="36:36">
+      <c r="AJ236" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="226" spans="45:45">
-      <c r="AS226" t="s">
+    <row r="237" spans="36:36">
+      <c r="AJ237" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="227" spans="45:45">
-      <c r="AS227" t="s">
+    <row r="238" spans="36:36">
+      <c r="AJ238" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="45:45">
-      <c r="AS228" t="s">
+    <row r="239" spans="36:36">
+      <c r="AJ239" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="229" spans="45:45">
-      <c r="AS229" t="s">
+    <row r="240" spans="36:36">
+      <c r="AJ240" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="230" spans="45:45">
-      <c r="AS230" t="s">
+    <row r="241" spans="36:36">
+      <c r="AJ241" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="231" spans="45:45">
-      <c r="AS231" t="s">
+    <row r="242" spans="36:36">
+      <c r="AJ242" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="232" spans="45:45">
-      <c r="AS232" t="s">
+    <row r="243" spans="36:36">
+      <c r="AJ243" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="233" spans="45:45">
-      <c r="AS233" t="s">
+    <row r="244" spans="36:36">
+      <c r="AJ244" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="234" spans="45:45">
-      <c r="AS234" t="s">
+    <row r="245" spans="36:36">
+      <c r="AJ245" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="235" spans="45:45">
-      <c r="AS235" t="s">
+    <row r="246" spans="36:36">
+      <c r="AJ246" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="236" spans="45:45">
-      <c r="AS236" t="s">
+    <row r="247" spans="36:36">
+      <c r="AJ247" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="45:45">
-      <c r="AS237" t="s">
+    <row r="248" spans="36:36">
+      <c r="AJ248" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="238" spans="45:45">
-      <c r="AS238" t="s">
+    <row r="249" spans="36:36">
+      <c r="AJ249" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="239" spans="45:45">
-      <c r="AS239" t="s">
+    <row r="250" spans="36:36">
+      <c r="AJ250" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="240" spans="45:45">
-      <c r="AS240" t="s">
+    <row r="251" spans="36:36">
+      <c r="AJ251" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="241" spans="45:45">
-      <c r="AS241" t="s">
+    <row r="252" spans="36:36">
+      <c r="AJ252" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="242" spans="45:45">
-      <c r="AS242" t="s">
+    <row r="253" spans="36:36">
+      <c r="AJ253" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="243" spans="45:45">
-      <c r="AS243" t="s">
+    <row r="254" spans="36:36">
+      <c r="AJ254" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="244" spans="45:45">
-      <c r="AS244" t="s">
+    <row r="255" spans="36:36">
+      <c r="AJ255" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="245" spans="45:45">
-      <c r="AS245" t="s">
+    <row r="256" spans="36:36">
+      <c r="AJ256" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="246" spans="45:45">
-      <c r="AS246" t="s">
+    <row r="257" spans="36:36">
+      <c r="AJ257" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="45:45">
-      <c r="AS247" t="s">
+    <row r="258" spans="36:36">
+      <c r="AJ258" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="248" spans="45:45">
-      <c r="AS248" t="s">
+    <row r="259" spans="36:36">
+      <c r="AJ259" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="249" spans="45:45">
-      <c r="AS249" t="s">
+    <row r="260" spans="36:36">
+      <c r="AJ260" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="250" spans="45:45">
-      <c r="AS250" t="s">
+    <row r="261" spans="36:36">
+      <c r="AJ261" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="251" spans="45:45">
-      <c r="AS251" t="s">
+    <row r="262" spans="36:36">
+      <c r="AJ262" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="252" spans="45:45">
-      <c r="AS252" t="s">
+    <row r="263" spans="36:36">
+      <c r="AJ263" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="253" spans="45:45">
-      <c r="AS253" t="s">
+    <row r="264" spans="36:36">
+      <c r="AJ264" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="45:45">
-      <c r="AS254" t="s">
+    <row r="265" spans="36:36">
+      <c r="AJ265" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="255" spans="45:45">
-      <c r="AS255" t="s">
+    <row r="266" spans="36:36">
+      <c r="AJ266" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="256" spans="45:45">
-      <c r="AS256" t="s">
+    <row r="267" spans="36:36">
+      <c r="AJ267" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="257" spans="45:45">
-      <c r="AS257" t="s">
+    <row r="268" spans="36:36">
+      <c r="AJ268" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="45:45">
-      <c r="AS258" t="s">
+    <row r="269" spans="36:36">
+      <c r="AJ269" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="259" spans="45:45">
-      <c r="AS259" t="s">
+    <row r="270" spans="36:36">
+      <c r="AJ270" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="260" spans="45:45">
-      <c r="AS260" t="s">
+    <row r="271" spans="36:36">
+      <c r="AJ271" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="261" spans="45:45">
-      <c r="AS261" t="s">
+    <row r="272" spans="36:36">
+      <c r="AJ272" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="262" spans="45:45">
-      <c r="AS262" t="s">
+    <row r="273" spans="36:36">
+      <c r="AJ273" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="263" spans="45:45">
-      <c r="AS263" t="s">
+    <row r="274" spans="36:36">
+      <c r="AJ274" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="264" spans="45:45">
-      <c r="AS264" t="s">
+    <row r="275" spans="36:36">
+      <c r="AJ275" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="45:45">
-      <c r="AS265" t="s">
+    <row r="276" spans="36:36">
+      <c r="AJ276" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="266" spans="45:45">
-      <c r="AS266" t="s">
+    <row r="277" spans="36:36">
+      <c r="AJ277" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="267" spans="45:45">
-      <c r="AS267" t="s">
+    <row r="278" spans="36:36">
+      <c r="AJ278" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="268" spans="45:45">
-      <c r="AS268" t="s">
+    <row r="279" spans="36:36">
+      <c r="AJ279" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="269" spans="45:45">
-      <c r="AS269" t="s">
+    <row r="280" spans="36:36">
+      <c r="AJ280" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="270" spans="45:45">
-      <c r="AS270" t="s">
+    <row r="281" spans="36:36">
+      <c r="AJ281" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="271" spans="45:45">
-      <c r="AS271" t="s">
+    <row r="282" spans="36:36">
+      <c r="AJ282" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="272" spans="45:45">
-      <c r="AS272" t="s">
+    <row r="283" spans="36:36">
+      <c r="AJ283" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="273" spans="45:45">
-      <c r="AS273" t="s">
+    <row r="284" spans="36:36">
+      <c r="AJ284" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="274" spans="45:45">
-      <c r="AS274" t="s">
+    <row r="285" spans="36:36">
+      <c r="AJ285" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="275" spans="45:45">
-      <c r="AS275" t="s">
+    <row r="286" spans="36:36">
+      <c r="AJ286" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="276" spans="45:45">
-      <c r="AS276" t="s">
+    <row r="287" spans="36:36">
+      <c r="AJ287" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="277" spans="45:45">
-      <c r="AS277" t="s">
+    <row r="288" spans="36:36">
+      <c r="AJ288" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="278" spans="45:45">
-      <c r="AS278" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="279" spans="45:45">
-      <c r="AS279" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="280" spans="45:45">
-      <c r="AS280" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="281" spans="45:45">
-      <c r="AS281" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="282" spans="45:45">
-      <c r="AS282" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="283" spans="45:45">
-      <c r="AS283" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="284" spans="45:45">
-      <c r="AS284" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="285" spans="45:45">
-      <c r="AS285" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="286" spans="45:45">
-      <c r="AS286" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="287" spans="45:45">
-      <c r="AS287" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="681">
   <si>
     <t>alias</t>
   </si>
@@ -1252,12 +1252,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2072,12 +2072,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3597,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3606,7 +3600,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3790,11 +3784,8 @@
       <c r="BI1" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -3977,9 +3968,6 @@
       </c>
       <c r="BI2" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="682">
   <si>
     <t>alias</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3608,366 +3611,366 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -4005,1490 +4008,1490 @@
   <sheetData>
     <row r="1" spans="5:36">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AD1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="5:36">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AD2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="5:36">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AJ3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="5:36">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="5:36">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="5:36">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="5:36">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="5:36">
       <c r="AJ8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="5:36">
       <c r="AJ9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="5:36">
       <c r="AJ10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="5:36">
       <c r="AJ11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="5:36">
       <c r="AJ12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="5:36">
       <c r="AJ13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="5:36">
       <c r="AJ14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="5:36">
       <c r="AJ15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="5:36">
       <c r="AJ16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="36:36">
       <c r="AJ17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="36:36">
       <c r="AJ18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="36:36">
       <c r="AJ19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="36:36">
       <c r="AJ20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="36:36">
       <c r="AJ21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="36:36">
       <c r="AJ22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="36:36">
       <c r="AJ23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="36:36">
       <c r="AJ24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="36:36">
       <c r="AJ25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="36:36">
       <c r="AJ26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="36:36">
       <c r="AJ27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="36:36">
       <c r="AJ28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="36:36">
       <c r="AJ29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="36:36">
       <c r="AJ30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="36:36">
       <c r="AJ31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="36:36">
       <c r="AJ32" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -115,7 +115,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -133,7 +133,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AD$1:$AD$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="683">
   <si>
     <t>alias</t>
   </si>
@@ -1063,6 +1063,60 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1891,6 +1945,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1931,60 +1988,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -3710,82 +3713,82 @@
         <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>630</v>
+        <v>342</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>632</v>
+        <v>344</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>634</v>
+        <v>346</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>636</v>
+        <v>348</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>640</v>
+        <v>352</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>642</v>
+        <v>354</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>644</v>
+        <v>356</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>646</v>
+        <v>358</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
@@ -3895,82 +3898,82 @@
         <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>631</v>
+        <v>343</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>345</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>637</v>
+        <v>349</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>639</v>
+        <v>351</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>641</v>
+        <v>353</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>643</v>
+        <v>355</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>645</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>647</v>
+        <v>359</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -3990,7 +3993,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4000,13 +4003,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AJ288"/>
+  <dimension ref="E1:AS289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:36">
+    <row r="1" spans="5:45">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4022,11 +4025,11 @@
       <c r="AD1" t="s">
         <v>327</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="5:36">
+      <c r="AS1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="5:45">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -4042,1456 +4045,1461 @@
       <c r="AD2" t="s">
         <v>328</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="5:36">
+      <c r="AS2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="5:45">
       <c r="E3" t="s">
         <v>268</v>
       </c>
       <c r="AD3" t="s">
         <v>329</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="5:36">
+      <c r="AS3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="5:45">
       <c r="E4" t="s">
         <v>269</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="5:36">
+      <c r="AS4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="5:45">
       <c r="E5" t="s">
         <v>270</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="5:36">
+      <c r="AS5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="5:45">
       <c r="E6" t="s">
         <v>271</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="5:36">
+      <c r="AS6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="5:45">
       <c r="E7" t="s">
         <v>272</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="5:36">
-      <c r="AJ8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="5:36">
-      <c r="AJ9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="5:36">
-      <c r="AJ10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="5:36">
-      <c r="AJ11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="5:36">
-      <c r="AJ12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="5:36">
-      <c r="AJ13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="5:36">
-      <c r="AJ14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="5:36">
-      <c r="AJ15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="5:36">
-      <c r="AJ16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="36:36">
-      <c r="AJ17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="18" spans="36:36">
-      <c r="AJ18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="36:36">
-      <c r="AJ19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="36:36">
-      <c r="AJ20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="36:36">
-      <c r="AJ21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="36:36">
-      <c r="AJ22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="36:36">
-      <c r="AJ23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="36:36">
-      <c r="AJ24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="36:36">
-      <c r="AJ25" t="s">
+      <c r="AS7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="36:36">
-      <c r="AJ26" t="s">
+    <row r="8" spans="5:45">
+      <c r="AS8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="36:36">
-      <c r="AJ27" t="s">
+    <row r="9" spans="5:45">
+      <c r="AS9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="36:36">
-      <c r="AJ28" t="s">
+    <row r="10" spans="5:45">
+      <c r="AS10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="36:36">
-      <c r="AJ29" t="s">
+    <row r="11" spans="5:45">
+      <c r="AS11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="36:36">
-      <c r="AJ30" t="s">
+    <row r="12" spans="5:45">
+      <c r="AS12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="36:36">
-      <c r="AJ31" t="s">
+    <row r="13" spans="5:45">
+      <c r="AS13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="36:36">
-      <c r="AJ32" t="s">
+    <row r="14" spans="5:45">
+      <c r="AS14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="36:36">
-      <c r="AJ33" t="s">
+    <row r="15" spans="5:45">
+      <c r="AS15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="36:36">
-      <c r="AJ34" t="s">
+    <row r="16" spans="5:45">
+      <c r="AS16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="36:36">
-      <c r="AJ35" t="s">
+    <row r="17" spans="45:45">
+      <c r="AS17" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="36:36">
-      <c r="AJ36" t="s">
+    <row r="18" spans="45:45">
+      <c r="AS18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="36:36">
-      <c r="AJ37" t="s">
+    <row r="19" spans="45:45">
+      <c r="AS19" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="36:36">
-      <c r="AJ38" t="s">
+    <row r="20" spans="45:45">
+      <c r="AS20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="36:36">
-      <c r="AJ39" t="s">
+    <row r="21" spans="45:45">
+      <c r="AS21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="36:36">
-      <c r="AJ40" t="s">
+    <row r="22" spans="45:45">
+      <c r="AS22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="36:36">
-      <c r="AJ41" t="s">
+    <row r="23" spans="45:45">
+      <c r="AS23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="36:36">
-      <c r="AJ42" t="s">
+    <row r="24" spans="45:45">
+      <c r="AS24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="36:36">
-      <c r="AJ43" t="s">
+    <row r="25" spans="45:45">
+      <c r="AS25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="36:36">
-      <c r="AJ44" t="s">
+    <row r="26" spans="45:45">
+      <c r="AS26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="36:36">
-      <c r="AJ45" t="s">
+    <row r="27" spans="45:45">
+      <c r="AS27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="36:36">
-      <c r="AJ46" t="s">
+    <row r="28" spans="45:45">
+      <c r="AS28" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="36:36">
-      <c r="AJ47" t="s">
+    <row r="29" spans="45:45">
+      <c r="AS29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="36:36">
-      <c r="AJ48" t="s">
+    <row r="30" spans="45:45">
+      <c r="AS30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="36:36">
-      <c r="AJ49" t="s">
+    <row r="31" spans="45:45">
+      <c r="AS31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="36:36">
-      <c r="AJ50" t="s">
+    <row r="32" spans="45:45">
+      <c r="AS32" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="36:36">
-      <c r="AJ51" t="s">
+    <row r="33" spans="45:45">
+      <c r="AS33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="36:36">
-      <c r="AJ52" t="s">
+    <row r="34" spans="45:45">
+      <c r="AS34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="36:36">
-      <c r="AJ53" t="s">
+    <row r="35" spans="45:45">
+      <c r="AS35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="36:36">
-      <c r="AJ54" t="s">
+    <row r="36" spans="45:45">
+      <c r="AS36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="36:36">
-      <c r="AJ55" t="s">
+    <row r="37" spans="45:45">
+      <c r="AS37" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="36:36">
-      <c r="AJ56" t="s">
+    <row r="38" spans="45:45">
+      <c r="AS38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="36:36">
-      <c r="AJ57" t="s">
+    <row r="39" spans="45:45">
+      <c r="AS39" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="36:36">
-      <c r="AJ58" t="s">
+    <row r="40" spans="45:45">
+      <c r="AS40" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="36:36">
-      <c r="AJ59" t="s">
+    <row r="41" spans="45:45">
+      <c r="AS41" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="36:36">
-      <c r="AJ60" t="s">
+    <row r="42" spans="45:45">
+      <c r="AS42" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="36:36">
-      <c r="AJ61" t="s">
+    <row r="43" spans="45:45">
+      <c r="AS43" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="36:36">
-      <c r="AJ62" t="s">
+    <row r="44" spans="45:45">
+      <c r="AS44" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="63" spans="36:36">
-      <c r="AJ63" t="s">
+    <row r="45" spans="45:45">
+      <c r="AS45" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="36:36">
-      <c r="AJ64" t="s">
+    <row r="46" spans="45:45">
+      <c r="AS46" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="36:36">
-      <c r="AJ65" t="s">
+    <row r="47" spans="45:45">
+      <c r="AS47" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="36:36">
-      <c r="AJ66" t="s">
+    <row r="48" spans="45:45">
+      <c r="AS48" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="36:36">
-      <c r="AJ67" t="s">
+    <row r="49" spans="45:45">
+      <c r="AS49" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="36:36">
-      <c r="AJ68" t="s">
+    <row r="50" spans="45:45">
+      <c r="AS50" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="36:36">
-      <c r="AJ69" t="s">
+    <row r="51" spans="45:45">
+      <c r="AS51" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="36:36">
-      <c r="AJ70" t="s">
+    <row r="52" spans="45:45">
+      <c r="AS52" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="36:36">
-      <c r="AJ71" t="s">
+    <row r="53" spans="45:45">
+      <c r="AS53" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="36:36">
-      <c r="AJ72" t="s">
+    <row r="54" spans="45:45">
+      <c r="AS54" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="36:36">
-      <c r="AJ73" t="s">
+    <row r="55" spans="45:45">
+      <c r="AS55" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="36:36">
-      <c r="AJ74" t="s">
+    <row r="56" spans="45:45">
+      <c r="AS56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="36:36">
-      <c r="AJ75" t="s">
+    <row r="57" spans="45:45">
+      <c r="AS57" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="36:36">
-      <c r="AJ76" t="s">
+    <row r="58" spans="45:45">
+      <c r="AS58" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="36:36">
-      <c r="AJ77" t="s">
+    <row r="59" spans="45:45">
+      <c r="AS59" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="78" spans="36:36">
-      <c r="AJ78" t="s">
+    <row r="60" spans="45:45">
+      <c r="AS60" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="36:36">
-      <c r="AJ79" t="s">
+    <row r="61" spans="45:45">
+      <c r="AS61" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="80" spans="36:36">
-      <c r="AJ80" t="s">
+    <row r="62" spans="45:45">
+      <c r="AS62" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="36:36">
-      <c r="AJ81" t="s">
+    <row r="63" spans="45:45">
+      <c r="AS63" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="36:36">
-      <c r="AJ82" t="s">
+    <row r="64" spans="45:45">
+      <c r="AS64" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="83" spans="36:36">
-      <c r="AJ83" t="s">
+    <row r="65" spans="45:45">
+      <c r="AS65" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="36:36">
-      <c r="AJ84" t="s">
+    <row r="66" spans="45:45">
+      <c r="AS66" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="85" spans="36:36">
-      <c r="AJ85" t="s">
+    <row r="67" spans="45:45">
+      <c r="AS67" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="36:36">
-      <c r="AJ86" t="s">
+    <row r="68" spans="45:45">
+      <c r="AS68" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="36:36">
-      <c r="AJ87" t="s">
+    <row r="69" spans="45:45">
+      <c r="AS69" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="88" spans="36:36">
-      <c r="AJ88" t="s">
+    <row r="70" spans="45:45">
+      <c r="AS70" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="36:36">
-      <c r="AJ89" t="s">
+    <row r="71" spans="45:45">
+      <c r="AS71" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="36:36">
-      <c r="AJ90" t="s">
+    <row r="72" spans="45:45">
+      <c r="AS72" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="36:36">
-      <c r="AJ91" t="s">
+    <row r="73" spans="45:45">
+      <c r="AS73" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="92" spans="36:36">
-      <c r="AJ92" t="s">
+    <row r="74" spans="45:45">
+      <c r="AS74" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="36:36">
-      <c r="AJ93" t="s">
+    <row r="75" spans="45:45">
+      <c r="AS75" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="36:36">
-      <c r="AJ94" t="s">
+    <row r="76" spans="45:45">
+      <c r="AS76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="36:36">
-      <c r="AJ95" t="s">
+    <row r="77" spans="45:45">
+      <c r="AS77" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="36:36">
-      <c r="AJ96" t="s">
+    <row r="78" spans="45:45">
+      <c r="AS78" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="97" spans="36:36">
-      <c r="AJ97" t="s">
+    <row r="79" spans="45:45">
+      <c r="AS79" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="36:36">
-      <c r="AJ98" t="s">
+    <row r="80" spans="45:45">
+      <c r="AS80" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="99" spans="36:36">
-      <c r="AJ99" t="s">
+    <row r="81" spans="45:45">
+      <c r="AS81" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="100" spans="36:36">
-      <c r="AJ100" t="s">
+    <row r="82" spans="45:45">
+      <c r="AS82" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="101" spans="36:36">
-      <c r="AJ101" t="s">
+    <row r="83" spans="45:45">
+      <c r="AS83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="102" spans="36:36">
-      <c r="AJ102" t="s">
+    <row r="84" spans="45:45">
+      <c r="AS84" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="103" spans="36:36">
-      <c r="AJ103" t="s">
+    <row r="85" spans="45:45">
+      <c r="AS85" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="36:36">
-      <c r="AJ104" t="s">
+    <row r="86" spans="45:45">
+      <c r="AS86" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="36:36">
-      <c r="AJ105" t="s">
+    <row r="87" spans="45:45">
+      <c r="AS87" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="36:36">
-      <c r="AJ106" t="s">
+    <row r="88" spans="45:45">
+      <c r="AS88" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="36:36">
-      <c r="AJ107" t="s">
+    <row r="89" spans="45:45">
+      <c r="AS89" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="36:36">
-      <c r="AJ108" t="s">
+    <row r="90" spans="45:45">
+      <c r="AS90" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="36:36">
-      <c r="AJ109" t="s">
+    <row r="91" spans="45:45">
+      <c r="AS91" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="36:36">
-      <c r="AJ110" t="s">
+    <row r="92" spans="45:45">
+      <c r="AS92" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="36:36">
-      <c r="AJ111" t="s">
+    <row r="93" spans="45:45">
+      <c r="AS93" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="36:36">
-      <c r="AJ112" t="s">
+    <row r="94" spans="45:45">
+      <c r="AS94" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="36:36">
-      <c r="AJ113" t="s">
+    <row r="95" spans="45:45">
+      <c r="AS95" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="36:36">
-      <c r="AJ114" t="s">
+    <row r="96" spans="45:45">
+      <c r="AS96" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="36:36">
-      <c r="AJ115" t="s">
+    <row r="97" spans="45:45">
+      <c r="AS97" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="36:36">
-      <c r="AJ116" t="s">
+    <row r="98" spans="45:45">
+      <c r="AS98" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="36:36">
-      <c r="AJ117" t="s">
+    <row r="99" spans="45:45">
+      <c r="AS99" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="118" spans="36:36">
-      <c r="AJ118" t="s">
+    <row r="100" spans="45:45">
+      <c r="AS100" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="36:36">
-      <c r="AJ119" t="s">
+    <row r="101" spans="45:45">
+      <c r="AS101" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="36:36">
-      <c r="AJ120" t="s">
+    <row r="102" spans="45:45">
+      <c r="AS102" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="121" spans="36:36">
-      <c r="AJ121" t="s">
+    <row r="103" spans="45:45">
+      <c r="AS103" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="36:36">
-      <c r="AJ122" t="s">
+    <row r="104" spans="45:45">
+      <c r="AS104" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="123" spans="36:36">
-      <c r="AJ123" t="s">
+    <row r="105" spans="45:45">
+      <c r="AS105" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="124" spans="36:36">
-      <c r="AJ124" t="s">
+    <row r="106" spans="45:45">
+      <c r="AS106" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="125" spans="36:36">
-      <c r="AJ125" t="s">
+    <row r="107" spans="45:45">
+      <c r="AS107" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="126" spans="36:36">
-      <c r="AJ126" t="s">
+    <row r="108" spans="45:45">
+      <c r="AS108" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="127" spans="36:36">
-      <c r="AJ127" t="s">
+    <row r="109" spans="45:45">
+      <c r="AS109" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="128" spans="36:36">
-      <c r="AJ128" t="s">
+    <row r="110" spans="45:45">
+      <c r="AS110" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="129" spans="36:36">
-      <c r="AJ129" t="s">
+    <row r="111" spans="45:45">
+      <c r="AS111" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="130" spans="36:36">
-      <c r="AJ130" t="s">
+    <row r="112" spans="45:45">
+      <c r="AS112" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="36:36">
-      <c r="AJ131" t="s">
+    <row r="113" spans="45:45">
+      <c r="AS113" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="132" spans="36:36">
-      <c r="AJ132" t="s">
+    <row r="114" spans="45:45">
+      <c r="AS114" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="133" spans="36:36">
-      <c r="AJ133" t="s">
+    <row r="115" spans="45:45">
+      <c r="AS115" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="134" spans="36:36">
-      <c r="AJ134" t="s">
+    <row r="116" spans="45:45">
+      <c r="AS116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="135" spans="36:36">
-      <c r="AJ135" t="s">
+    <row r="117" spans="45:45">
+      <c r="AS117" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="136" spans="36:36">
-      <c r="AJ136" t="s">
+    <row r="118" spans="45:45">
+      <c r="AS118" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="137" spans="36:36">
-      <c r="AJ137" t="s">
+    <row r="119" spans="45:45">
+      <c r="AS119" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="36:36">
-      <c r="AJ138" t="s">
+    <row r="120" spans="45:45">
+      <c r="AS120" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="139" spans="36:36">
-      <c r="AJ139" t="s">
+    <row r="121" spans="45:45">
+      <c r="AS121" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="36:36">
-      <c r="AJ140" t="s">
+    <row r="122" spans="45:45">
+      <c r="AS122" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="141" spans="36:36">
-      <c r="AJ141" t="s">
+    <row r="123" spans="45:45">
+      <c r="AS123" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="142" spans="36:36">
-      <c r="AJ142" t="s">
+    <row r="124" spans="45:45">
+      <c r="AS124" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="143" spans="36:36">
-      <c r="AJ143" t="s">
+    <row r="125" spans="45:45">
+      <c r="AS125" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="144" spans="36:36">
-      <c r="AJ144" t="s">
+    <row r="126" spans="45:45">
+      <c r="AS126" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="145" spans="36:36">
-      <c r="AJ145" t="s">
+    <row r="127" spans="45:45">
+      <c r="AS127" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="146" spans="36:36">
-      <c r="AJ146" t="s">
+    <row r="128" spans="45:45">
+      <c r="AS128" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="147" spans="36:36">
-      <c r="AJ147" t="s">
+    <row r="129" spans="45:45">
+      <c r="AS129" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="148" spans="36:36">
-      <c r="AJ148" t="s">
+    <row r="130" spans="45:45">
+      <c r="AS130" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="36:36">
-      <c r="AJ149" t="s">
+    <row r="131" spans="45:45">
+      <c r="AS131" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="36:36">
-      <c r="AJ150" t="s">
+    <row r="132" spans="45:45">
+      <c r="AS132" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="151" spans="36:36">
-      <c r="AJ151" t="s">
+    <row r="133" spans="45:45">
+      <c r="AS133" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="36:36">
-      <c r="AJ152" t="s">
+    <row r="134" spans="45:45">
+      <c r="AS134" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="153" spans="36:36">
-      <c r="AJ153" t="s">
+    <row r="135" spans="45:45">
+      <c r="AS135" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="154" spans="36:36">
-      <c r="AJ154" t="s">
+    <row r="136" spans="45:45">
+      <c r="AS136" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="155" spans="36:36">
-      <c r="AJ155" t="s">
+    <row r="137" spans="45:45">
+      <c r="AS137" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="156" spans="36:36">
-      <c r="AJ156" t="s">
+    <row r="138" spans="45:45">
+      <c r="AS138" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="36:36">
-      <c r="AJ157" t="s">
+    <row r="139" spans="45:45">
+      <c r="AS139" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="158" spans="36:36">
-      <c r="AJ158" t="s">
+    <row r="140" spans="45:45">
+      <c r="AS140" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="159" spans="36:36">
-      <c r="AJ159" t="s">
+    <row r="141" spans="45:45">
+      <c r="AS141" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="36:36">
-      <c r="AJ160" t="s">
+    <row r="142" spans="45:45">
+      <c r="AS142" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="36:36">
-      <c r="AJ161" t="s">
+    <row r="143" spans="45:45">
+      <c r="AS143" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="162" spans="36:36">
-      <c r="AJ162" t="s">
+    <row r="144" spans="45:45">
+      <c r="AS144" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="163" spans="36:36">
-      <c r="AJ163" t="s">
+    <row r="145" spans="45:45">
+      <c r="AS145" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="164" spans="36:36">
-      <c r="AJ164" t="s">
+    <row r="146" spans="45:45">
+      <c r="AS146" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="36:36">
-      <c r="AJ165" t="s">
+    <row r="147" spans="45:45">
+      <c r="AS147" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="166" spans="36:36">
-      <c r="AJ166" t="s">
+    <row r="148" spans="45:45">
+      <c r="AS148" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="167" spans="36:36">
-      <c r="AJ167" t="s">
+    <row r="149" spans="45:45">
+      <c r="AS149" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="168" spans="36:36">
-      <c r="AJ168" t="s">
+    <row r="150" spans="45:45">
+      <c r="AS150" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="169" spans="36:36">
-      <c r="AJ169" t="s">
+    <row r="151" spans="45:45">
+      <c r="AS151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="36:36">
-      <c r="AJ170" t="s">
+    <row r="152" spans="45:45">
+      <c r="AS152" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="171" spans="36:36">
-      <c r="AJ171" t="s">
+    <row r="153" spans="45:45">
+      <c r="AS153" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="172" spans="36:36">
-      <c r="AJ172" t="s">
+    <row r="154" spans="45:45">
+      <c r="AS154" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="173" spans="36:36">
-      <c r="AJ173" t="s">
+    <row r="155" spans="45:45">
+      <c r="AS155" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="174" spans="36:36">
-      <c r="AJ174" t="s">
+    <row r="156" spans="45:45">
+      <c r="AS156" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="175" spans="36:36">
-      <c r="AJ175" t="s">
+    <row r="157" spans="45:45">
+      <c r="AS157" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="176" spans="36:36">
-      <c r="AJ176" t="s">
+    <row r="158" spans="45:45">
+      <c r="AS158" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="36:36">
-      <c r="AJ177" t="s">
+    <row r="159" spans="45:45">
+      <c r="AS159" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="178" spans="36:36">
-      <c r="AJ178" t="s">
+    <row r="160" spans="45:45">
+      <c r="AS160" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="179" spans="36:36">
-      <c r="AJ179" t="s">
+    <row r="161" spans="45:45">
+      <c r="AS161" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="180" spans="36:36">
-      <c r="AJ180" t="s">
+    <row r="162" spans="45:45">
+      <c r="AS162" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="181" spans="36:36">
-      <c r="AJ181" t="s">
+    <row r="163" spans="45:45">
+      <c r="AS163" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="182" spans="36:36">
-      <c r="AJ182" t="s">
+    <row r="164" spans="45:45">
+      <c r="AS164" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="183" spans="36:36">
-      <c r="AJ183" t="s">
+    <row r="165" spans="45:45">
+      <c r="AS165" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="184" spans="36:36">
-      <c r="AJ184" t="s">
+    <row r="166" spans="45:45">
+      <c r="AS166" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="185" spans="36:36">
-      <c r="AJ185" t="s">
+    <row r="167" spans="45:45">
+      <c r="AS167" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="186" spans="36:36">
-      <c r="AJ186" t="s">
+    <row r="168" spans="45:45">
+      <c r="AS168" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="187" spans="36:36">
-      <c r="AJ187" t="s">
+    <row r="169" spans="45:45">
+      <c r="AS169" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="36:36">
-      <c r="AJ188" t="s">
+    <row r="170" spans="45:45">
+      <c r="AS170" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="189" spans="36:36">
-      <c r="AJ189" t="s">
+    <row r="171" spans="45:45">
+      <c r="AS171" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="190" spans="36:36">
-      <c r="AJ190" t="s">
+    <row r="172" spans="45:45">
+      <c r="AS172" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="191" spans="36:36">
-      <c r="AJ191" t="s">
+    <row r="173" spans="45:45">
+      <c r="AS173" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="36:36">
-      <c r="AJ192" t="s">
+    <row r="174" spans="45:45">
+      <c r="AS174" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="193" spans="36:36">
-      <c r="AJ193" t="s">
+    <row r="175" spans="45:45">
+      <c r="AS175" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="36:36">
-      <c r="AJ194" t="s">
+    <row r="176" spans="45:45">
+      <c r="AS176" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="195" spans="36:36">
-      <c r="AJ195" t="s">
+    <row r="177" spans="45:45">
+      <c r="AS177" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="196" spans="36:36">
-      <c r="AJ196" t="s">
+    <row r="178" spans="45:45">
+      <c r="AS178" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="197" spans="36:36">
-      <c r="AJ197" t="s">
+    <row r="179" spans="45:45">
+      <c r="AS179" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="198" spans="36:36">
-      <c r="AJ198" t="s">
+    <row r="180" spans="45:45">
+      <c r="AS180" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="199" spans="36:36">
-      <c r="AJ199" t="s">
+    <row r="181" spans="45:45">
+      <c r="AS181" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="200" spans="36:36">
-      <c r="AJ200" t="s">
+    <row r="182" spans="45:45">
+      <c r="AS182" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="201" spans="36:36">
-      <c r="AJ201" t="s">
+    <row r="183" spans="45:45">
+      <c r="AS183" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="202" spans="36:36">
-      <c r="AJ202" t="s">
+    <row r="184" spans="45:45">
+      <c r="AS184" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="203" spans="36:36">
-      <c r="AJ203" t="s">
+    <row r="185" spans="45:45">
+      <c r="AS185" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="204" spans="36:36">
-      <c r="AJ204" t="s">
+    <row r="186" spans="45:45">
+      <c r="AS186" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="205" spans="36:36">
-      <c r="AJ205" t="s">
+    <row r="187" spans="45:45">
+      <c r="AS187" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="36:36">
-      <c r="AJ206" t="s">
+    <row r="188" spans="45:45">
+      <c r="AS188" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="36:36">
-      <c r="AJ207" t="s">
+    <row r="189" spans="45:45">
+      <c r="AS189" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="208" spans="36:36">
-      <c r="AJ208" t="s">
+    <row r="190" spans="45:45">
+      <c r="AS190" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="209" spans="36:36">
-      <c r="AJ209" t="s">
+    <row r="191" spans="45:45">
+      <c r="AS191" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="210" spans="36:36">
-      <c r="AJ210" t="s">
+    <row r="192" spans="45:45">
+      <c r="AS192" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="211" spans="36:36">
-      <c r="AJ211" t="s">
+    <row r="193" spans="45:45">
+      <c r="AS193" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="212" spans="36:36">
-      <c r="AJ212" t="s">
+    <row r="194" spans="45:45">
+      <c r="AS194" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="213" spans="36:36">
-      <c r="AJ213" t="s">
+    <row r="195" spans="45:45">
+      <c r="AS195" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="214" spans="36:36">
-      <c r="AJ214" t="s">
+    <row r="196" spans="45:45">
+      <c r="AS196" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="215" spans="36:36">
-      <c r="AJ215" t="s">
+    <row r="197" spans="45:45">
+      <c r="AS197" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="216" spans="36:36">
-      <c r="AJ216" t="s">
+    <row r="198" spans="45:45">
+      <c r="AS198" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="217" spans="36:36">
-      <c r="AJ217" t="s">
+    <row r="199" spans="45:45">
+      <c r="AS199" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="36:36">
-      <c r="AJ218" t="s">
+    <row r="200" spans="45:45">
+      <c r="AS200" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="219" spans="36:36">
-      <c r="AJ219" t="s">
+    <row r="201" spans="45:45">
+      <c r="AS201" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="220" spans="36:36">
-      <c r="AJ220" t="s">
+    <row r="202" spans="45:45">
+      <c r="AS202" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="221" spans="36:36">
-      <c r="AJ221" t="s">
+    <row r="203" spans="45:45">
+      <c r="AS203" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="222" spans="36:36">
-      <c r="AJ222" t="s">
+    <row r="204" spans="45:45">
+      <c r="AS204" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="223" spans="36:36">
-      <c r="AJ223" t="s">
+    <row r="205" spans="45:45">
+      <c r="AS205" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="224" spans="36:36">
-      <c r="AJ224" t="s">
+    <row r="206" spans="45:45">
+      <c r="AS206" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="225" spans="36:36">
-      <c r="AJ225" t="s">
+    <row r="207" spans="45:45">
+      <c r="AS207" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="226" spans="36:36">
-      <c r="AJ226" t="s">
+    <row r="208" spans="45:45">
+      <c r="AS208" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="227" spans="36:36">
-      <c r="AJ227" t="s">
+    <row r="209" spans="45:45">
+      <c r="AS209" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="228" spans="36:36">
-      <c r="AJ228" t="s">
+    <row r="210" spans="45:45">
+      <c r="AS210" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="229" spans="36:36">
-      <c r="AJ229" t="s">
+    <row r="211" spans="45:45">
+      <c r="AS211" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="230" spans="36:36">
-      <c r="AJ230" t="s">
+    <row r="212" spans="45:45">
+      <c r="AS212" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="231" spans="36:36">
-      <c r="AJ231" t="s">
+    <row r="213" spans="45:45">
+      <c r="AS213" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="232" spans="36:36">
-      <c r="AJ232" t="s">
+    <row r="214" spans="45:45">
+      <c r="AS214" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="233" spans="36:36">
-      <c r="AJ233" t="s">
+    <row r="215" spans="45:45">
+      <c r="AS215" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="234" spans="36:36">
-      <c r="AJ234" t="s">
+    <row r="216" spans="45:45">
+      <c r="AS216" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="235" spans="36:36">
-      <c r="AJ235" t="s">
+    <row r="217" spans="45:45">
+      <c r="AS217" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="236" spans="36:36">
-      <c r="AJ236" t="s">
+    <row r="218" spans="45:45">
+      <c r="AS218" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="237" spans="36:36">
-      <c r="AJ237" t="s">
+    <row r="219" spans="45:45">
+      <c r="AS219" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="238" spans="36:36">
-      <c r="AJ238" t="s">
+    <row r="220" spans="45:45">
+      <c r="AS220" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="36:36">
-      <c r="AJ239" t="s">
+    <row r="221" spans="45:45">
+      <c r="AS221" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="240" spans="36:36">
-      <c r="AJ240" t="s">
+    <row r="222" spans="45:45">
+      <c r="AS222" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="241" spans="36:36">
-      <c r="AJ241" t="s">
+    <row r="223" spans="45:45">
+      <c r="AS223" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="242" spans="36:36">
-      <c r="AJ242" t="s">
+    <row r="224" spans="45:45">
+      <c r="AS224" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="243" spans="36:36">
-      <c r="AJ243" t="s">
+    <row r="225" spans="45:45">
+      <c r="AS225" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="244" spans="36:36">
-      <c r="AJ244" t="s">
+    <row r="226" spans="45:45">
+      <c r="AS226" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="245" spans="36:36">
-      <c r="AJ245" t="s">
+    <row r="227" spans="45:45">
+      <c r="AS227" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="246" spans="36:36">
-      <c r="AJ246" t="s">
+    <row r="228" spans="45:45">
+      <c r="AS228" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="247" spans="36:36">
-      <c r="AJ247" t="s">
+    <row r="229" spans="45:45">
+      <c r="AS229" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="248" spans="36:36">
-      <c r="AJ248" t="s">
+    <row r="230" spans="45:45">
+      <c r="AS230" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="249" spans="36:36">
-      <c r="AJ249" t="s">
+    <row r="231" spans="45:45">
+      <c r="AS231" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="250" spans="36:36">
-      <c r="AJ250" t="s">
+    <row r="232" spans="45:45">
+      <c r="AS232" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="251" spans="36:36">
-      <c r="AJ251" t="s">
+    <row r="233" spans="45:45">
+      <c r="AS233" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="252" spans="36:36">
-      <c r="AJ252" t="s">
+    <row r="234" spans="45:45">
+      <c r="AS234" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="253" spans="36:36">
-      <c r="AJ253" t="s">
+    <row r="235" spans="45:45">
+      <c r="AS235" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="254" spans="36:36">
-      <c r="AJ254" t="s">
+    <row r="236" spans="45:45">
+      <c r="AS236" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="255" spans="36:36">
-      <c r="AJ255" t="s">
+    <row r="237" spans="45:45">
+      <c r="AS237" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="256" spans="36:36">
-      <c r="AJ256" t="s">
+    <row r="238" spans="45:45">
+      <c r="AS238" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="257" spans="36:36">
-      <c r="AJ257" t="s">
+    <row r="239" spans="45:45">
+      <c r="AS239" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="258" spans="36:36">
-      <c r="AJ258" t="s">
+    <row r="240" spans="45:45">
+      <c r="AS240" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="259" spans="36:36">
-      <c r="AJ259" t="s">
+    <row r="241" spans="45:45">
+      <c r="AS241" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="260" spans="36:36">
-      <c r="AJ260" t="s">
+    <row r="242" spans="45:45">
+      <c r="AS242" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="261" spans="36:36">
-      <c r="AJ261" t="s">
+    <row r="243" spans="45:45">
+      <c r="AS243" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="262" spans="36:36">
-      <c r="AJ262" t="s">
+    <row r="244" spans="45:45">
+      <c r="AS244" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="263" spans="36:36">
-      <c r="AJ263" t="s">
+    <row r="245" spans="45:45">
+      <c r="AS245" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="264" spans="36:36">
-      <c r="AJ264" t="s">
+    <row r="246" spans="45:45">
+      <c r="AS246" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="265" spans="36:36">
-      <c r="AJ265" t="s">
+    <row r="247" spans="45:45">
+      <c r="AS247" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="266" spans="36:36">
-      <c r="AJ266" t="s">
+    <row r="248" spans="45:45">
+      <c r="AS248" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="267" spans="36:36">
-      <c r="AJ267" t="s">
+    <row r="249" spans="45:45">
+      <c r="AS249" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="268" spans="36:36">
-      <c r="AJ268" t="s">
+    <row r="250" spans="45:45">
+      <c r="AS250" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="269" spans="36:36">
-      <c r="AJ269" t="s">
+    <row r="251" spans="45:45">
+      <c r="AS251" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="270" spans="36:36">
-      <c r="AJ270" t="s">
+    <row r="252" spans="45:45">
+      <c r="AS252" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="271" spans="36:36">
-      <c r="AJ271" t="s">
+    <row r="253" spans="45:45">
+      <c r="AS253" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="272" spans="36:36">
-      <c r="AJ272" t="s">
+    <row r="254" spans="45:45">
+      <c r="AS254" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="273" spans="36:36">
-      <c r="AJ273" t="s">
+    <row r="255" spans="45:45">
+      <c r="AS255" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="274" spans="36:36">
-      <c r="AJ274" t="s">
+    <row r="256" spans="45:45">
+      <c r="AS256" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="275" spans="36:36">
-      <c r="AJ275" t="s">
+    <row r="257" spans="45:45">
+      <c r="AS257" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="276" spans="36:36">
-      <c r="AJ276" t="s">
+    <row r="258" spans="45:45">
+      <c r="AS258" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="277" spans="36:36">
-      <c r="AJ277" t="s">
+    <row r="259" spans="45:45">
+      <c r="AS259" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="278" spans="36:36">
-      <c r="AJ278" t="s">
+    <row r="260" spans="45:45">
+      <c r="AS260" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="279" spans="36:36">
-      <c r="AJ279" t="s">
+    <row r="261" spans="45:45">
+      <c r="AS261" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="280" spans="36:36">
-      <c r="AJ280" t="s">
+    <row r="262" spans="45:45">
+      <c r="AS262" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="281" spans="36:36">
-      <c r="AJ281" t="s">
+    <row r="263" spans="45:45">
+      <c r="AS263" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="282" spans="36:36">
-      <c r="AJ282" t="s">
+    <row r="264" spans="45:45">
+      <c r="AS264" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="283" spans="36:36">
-      <c r="AJ283" t="s">
+    <row r="265" spans="45:45">
+      <c r="AS265" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="284" spans="36:36">
-      <c r="AJ284" t="s">
+    <row r="266" spans="45:45">
+      <c r="AS266" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="285" spans="36:36">
-      <c r="AJ285" t="s">
+    <row r="267" spans="45:45">
+      <c r="AS267" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="286" spans="36:36">
-      <c r="AJ286" t="s">
+    <row r="268" spans="45:45">
+      <c r="AS268" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="287" spans="36:36">
-      <c r="AJ287" t="s">
+    <row r="269" spans="45:45">
+      <c r="AS269" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="288" spans="36:36">
-      <c r="AJ288" t="s">
+    <row r="270" spans="45:45">
+      <c r="AS270" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="271" spans="45:45">
+      <c r="AS271" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="272" spans="45:45">
+      <c r="AS272" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="273" spans="45:45">
+      <c r="AS273" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="274" spans="45:45">
+      <c r="AS274" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="275" spans="45:45">
+      <c r="AS275" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="276" spans="45:45">
+      <c r="AS276" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="277" spans="45:45">
+      <c r="AS277" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="278" spans="45:45">
+      <c r="AS278" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="279" spans="45:45">
+      <c r="AS279" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="280" spans="45:45">
+      <c r="AS280" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="281" spans="45:45">
+      <c r="AS281" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="282" spans="45:45">
+      <c r="AS282" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="283" spans="45:45">
+      <c r="AS283" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="284" spans="45:45">
+      <c r="AS284" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="285" spans="45:45">
+      <c r="AS285" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="286" spans="45:45">
+      <c r="AS286" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="287" spans="45:45">
+      <c r="AS287" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="288" spans="45:45">
+      <c r="AS288" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="289" spans="45:45">
+      <c r="AS289" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
   <si>
     <t>alias</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2622,7 +2625,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2666,7 +2669,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3405,6 +3408,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3429,27 +3437,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3472,122 +3480,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3614,366 +3622,366 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -4011,1495 +4019,1495 @@
   <sheetData>
     <row r="1" spans="5:45">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AD1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AS1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="5:45">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AS2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="5:45">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AS3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="5:45">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AS4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="5:45">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AS5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="5:45">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AS6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="5:45">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:45">
       <c r="AS8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="5:45">
       <c r="AS9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="5:45">
       <c r="AS10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="5:45">
       <c r="AS11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="5:45">
       <c r="AS12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="5:45">
       <c r="AS13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="5:45">
       <c r="AS14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="5:45">
       <c r="AS15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="5:45">
       <c r="AS16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="45:45">
       <c r="AS17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="45:45">
       <c r="AS18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="45:45">
       <c r="AS19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="45:45">
       <c r="AS20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="45:45">
       <c r="AS21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="45:45">
       <c r="AS22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="45:45">
       <c r="AS23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="45:45">
       <c r="AS24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="45:45">
       <c r="AS25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="45:45">
       <c r="AS26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="45:45">
       <c r="AS27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="45:45">
       <c r="AS28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="45:45">
       <c r="AS29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="45:45">
       <c r="AS30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="45:45">
       <c r="AS31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="45:45">
       <c r="AS32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="45:45">
       <c r="AS33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="45:45">
       <c r="AS34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="45:45">
       <c r="AS35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="45:45">
       <c r="AS36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="45:45">
       <c r="AS37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="45:45">
       <c r="AS38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="45:45">
       <c r="AS39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="45:45">
       <c r="AS40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="45:45">
       <c r="AS41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="45:45">
       <c r="AS42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="45:45">
       <c r="AS43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="45:45">
       <c r="AS44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="AS45" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="45:45">
       <c r="AS46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="45:45">
       <c r="AS47" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="45:45">
       <c r="AS48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="45:45">
       <c r="AS49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="45:45">
       <c r="AS50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="45:45">
       <c r="AS51" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="45:45">
       <c r="AS52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="45:45">
       <c r="AS53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="45:45">
       <c r="AS54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="45:45">
       <c r="AS55" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="45:45">
       <c r="AS56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="45:45">
       <c r="AS57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="45:45">
       <c r="AS58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="45:45">
       <c r="AS59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="45:45">
       <c r="AS60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="45:45">
       <c r="AS61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="45:45">
       <c r="AS62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="45:45">
       <c r="AS63" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="45:45">
       <c r="AS64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="45:45">
       <c r="AS65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="45:45">
       <c r="AS66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="45:45">
       <c r="AS67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="45:45">
       <c r="AS68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="45:45">
       <c r="AS69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="45:45">
       <c r="AS70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="45:45">
       <c r="AS71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="45:45">
       <c r="AS72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="45:45">
       <c r="AS73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="45:45">
       <c r="AS74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="45:45">
       <c r="AS75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="45:45">
       <c r="AS76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="45:45">
       <c r="AS77" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="45:45">
       <c r="AS78" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="45:45">
       <c r="AS79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="45:45">
       <c r="AS80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="45:45">
       <c r="AS81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="45:45">
       <c r="AS82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="45:45">
       <c r="AS83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="45:45">
       <c r="AS84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="45:45">
       <c r="AS85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="45:45">
       <c r="AS86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="45:45">
       <c r="AS87" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="45:45">
       <c r="AS88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="45:45">
       <c r="AS89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="45:45">
       <c r="AS90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="45:45">
       <c r="AS91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="45:45">
       <c r="AS92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="45:45">
       <c r="AS93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="45:45">
       <c r="AS94" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="45:45">
       <c r="AS95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="45:45">
       <c r="AS96" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="45:45">
       <c r="AS97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="45:45">
       <c r="AS98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="45:45">
       <c r="AS99" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="45:45">
       <c r="AS100" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="45:45">
       <c r="AS101" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="45:45">
       <c r="AS102" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="45:45">
       <c r="AS103" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="45:45">
       <c r="AS104" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="45:45">
       <c r="AS105" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="45:45">
       <c r="AS106" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="45:45">
       <c r="AS107" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="45:45">
       <c r="AS108" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="45:45">
       <c r="AS109" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="45:45">
       <c r="AS110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="45:45">
       <c r="AS111" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="45:45">
       <c r="AS112" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="45:45">
       <c r="AS113" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="45:45">
       <c r="AS114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="45:45">
       <c r="AS115" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="45:45">
       <c r="AS116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="45:45">
       <c r="AS117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="45:45">
       <c r="AS118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="45:45">
       <c r="AS119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="45:45">
       <c r="AS120" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="45:45">
       <c r="AS121" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="45:45">
       <c r="AS122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="45:45">
       <c r="AS123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="45:45">
       <c r="AS124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="45:45">
       <c r="AS125" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="45:45">
       <c r="AS126" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="45:45">
       <c r="AS127" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="45:45">
       <c r="AS128" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="45:45">
       <c r="AS129" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="45:45">
       <c r="AS130" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="45:45">
       <c r="AS131" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="45:45">
       <c r="AS132" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="45:45">
       <c r="AS133" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="45:45">
       <c r="AS134" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="45:45">
       <c r="AS135" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="45:45">
       <c r="AS136" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="45:45">
       <c r="AS137" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="45:45">
       <c r="AS138" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="45:45">
       <c r="AS139" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="45:45">
       <c r="AS140" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="45:45">
       <c r="AS141" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="45:45">
       <c r="AS142" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="45:45">
       <c r="AS143" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="45:45">
       <c r="AS144" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="45:45">
       <c r="AS145" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="45:45">
       <c r="AS146" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="45:45">
       <c r="AS147" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="45:45">
       <c r="AS148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="45:45">
       <c r="AS149" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="45:45">
       <c r="AS150" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="45:45">
       <c r="AS151" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="45:45">
       <c r="AS152" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" spans="45:45">
       <c r="AS153" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="45:45">
       <c r="AS154" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="45:45">
       <c r="AS155" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="45:45">
       <c r="AS156" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="45:45">
       <c r="AS157" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="45:45">
       <c r="AS158" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="45:45">
       <c r="AS159" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="45:45">
       <c r="AS160" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="45:45">
       <c r="AS161" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="45:45">
       <c r="AS162" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="45:45">
       <c r="AS163" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="45:45">
       <c r="AS164" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="45:45">
       <c r="AS165" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="45:45">
       <c r="AS166" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="45:45">
       <c r="AS167" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="45:45">
       <c r="AS168" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="45:45">
       <c r="AS169" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="45:45">
       <c r="AS170" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="45:45">
       <c r="AS171" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="45:45">
       <c r="AS172" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="45:45">
       <c r="AS173" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="45:45">
       <c r="AS174" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="45:45">
       <c r="AS175" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176" spans="45:45">
       <c r="AS176" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="45:45">
       <c r="AS177" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="45:45">
       <c r="AS178" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="45:45">
       <c r="AS179" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="45:45">
       <c r="AS180" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" spans="45:45">
       <c r="AS181" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="45:45">
       <c r="AS182" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="45:45">
       <c r="AS183" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="45:45">
       <c r="AS184" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="45:45">
       <c r="AS185" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="45:45">
       <c r="AS186" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="45:45">
       <c r="AS187" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="45:45">
       <c r="AS188" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="45:45">
       <c r="AS189" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="45:45">
       <c r="AS190" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="45:45">
       <c r="AS191" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="45:45">
       <c r="AS192" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="45:45">
       <c r="AS193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="45:45">
       <c r="AS194" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="45:45">
       <c r="AS195" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="45:45">
       <c r="AS196" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="197" spans="45:45">
       <c r="AS197" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="45:45">
       <c r="AS198" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="199" spans="45:45">
       <c r="AS199" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="45:45">
       <c r="AS200" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="45:45">
       <c r="AS201" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="45:45">
       <c r="AS202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="45:45">
       <c r="AS203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="45:45">
       <c r="AS204" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="45:45">
       <c r="AS205" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="45:45">
       <c r="AS206" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="45:45">
       <c r="AS207" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="45:45">
       <c r="AS208" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" spans="45:45">
       <c r="AS209" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="45:45">
       <c r="AS210" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="45:45">
       <c r="AS211" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="45:45">
       <c r="AS212" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="45:45">
       <c r="AS213" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="45:45">
       <c r="AS214" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="45:45">
       <c r="AS215" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="45:45">
       <c r="AS216" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="45:45">
       <c r="AS217" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="45:45">
       <c r="AS218" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="45:45">
       <c r="AS219" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="45:45">
       <c r="AS220" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="45:45">
       <c r="AS221" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="45:45">
       <c r="AS222" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="45:45">
       <c r="AS223" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="45:45">
       <c r="AS224" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="225" spans="45:45">
       <c r="AS225" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="45:45">
       <c r="AS226" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="45:45">
       <c r="AS227" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="45:45">
       <c r="AS228" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" spans="45:45">
       <c r="AS229" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230" spans="45:45">
       <c r="AS230" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="45:45">
       <c r="AS231" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232" spans="45:45">
       <c r="AS232" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="45:45">
       <c r="AS233" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="45:45">
       <c r="AS234" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="45:45">
       <c r="AS235" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="45:45">
       <c r="AS236" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="45:45">
       <c r="AS237" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="45:45">
       <c r="AS238" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="45:45">
       <c r="AS239" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="45:45">
       <c r="AS240" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="45:45">
       <c r="AS241" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="45:45">
       <c r="AS242" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="45:45">
       <c r="AS243" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244" spans="45:45">
       <c r="AS244" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="45:45">
       <c r="AS245" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="45:45">
       <c r="AS246" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="247" spans="45:45">
       <c r="AS247" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="45:45">
       <c r="AS248" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249" spans="45:45">
       <c r="AS249" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="45:45">
       <c r="AS250" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="45:45">
       <c r="AS251" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="45:45">
       <c r="AS252" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="45:45">
       <c r="AS253" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="45:45">
       <c r="AS254" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255" spans="45:45">
       <c r="AS255" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="45:45">
       <c r="AS256" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257" spans="45:45">
       <c r="AS257" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="45:45">
       <c r="AS258" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259" spans="45:45">
       <c r="AS259" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="260" spans="45:45">
       <c r="AS260" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261" spans="45:45">
       <c r="AS261" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262" spans="45:45">
       <c r="AS262" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="45:45">
       <c r="AS263" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="45:45">
       <c r="AS264" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" spans="45:45">
       <c r="AS265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="45:45">
       <c r="AS266" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="45:45">
       <c r="AS267" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="268" spans="45:45">
       <c r="AS268" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="45:45">
       <c r="AS269" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270" spans="45:45">
       <c r="AS270" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="45:45">
       <c r="AS271" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272" spans="45:45">
       <c r="AS272" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="45:45">
       <c r="AS273" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" spans="45:45">
       <c r="AS274" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="45:45">
       <c r="AS275" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="276" spans="45:45">
       <c r="AS276" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="277" spans="45:45">
       <c r="AS277" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="278" spans="45:45">
       <c r="AS278" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="45:45">
       <c r="AS279" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="45:45">
       <c r="AS280" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="45:45">
       <c r="AS281" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282" spans="45:45">
       <c r="AS282" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="45:45">
       <c r="AS283" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="45:45">
       <c r="AS284" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="285" spans="45:45">
       <c r="AS285" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286" spans="45:45">
       <c r="AS286" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" spans="45:45">
       <c r="AS287" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288" spans="45:45">
       <c r="AS288" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
   <si>
     <t>alias</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2625,7 +2628,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2669,7 +2672,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2699,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3413,6 +3416,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3437,27 +3445,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3480,122 +3488,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3622,366 +3630,366 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -4019,1495 +4027,1495 @@
   <sheetData>
     <row r="1" spans="5:45">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AS1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="5:45">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AS2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="5:45">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AS3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="5:45">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AS4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="5:45">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AS5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="5:45">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="5:45">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AS7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="5:45">
       <c r="AS8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="5:45">
       <c r="AS9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="5:45">
       <c r="AS10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="5:45">
       <c r="AS11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="5:45">
       <c r="AS12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="5:45">
       <c r="AS13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="5:45">
       <c r="AS14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="5:45">
       <c r="AS15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="5:45">
       <c r="AS16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="45:45">
       <c r="AS17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="45:45">
       <c r="AS18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="45:45">
       <c r="AS19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="45:45">
       <c r="AS20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="45:45">
       <c r="AS21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="45:45">
       <c r="AS22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="45:45">
       <c r="AS23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="45:45">
       <c r="AS24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="45:45">
       <c r="AS25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="45:45">
       <c r="AS26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="45:45">
       <c r="AS27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="45:45">
       <c r="AS28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="45:45">
       <c r="AS29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="45:45">
       <c r="AS30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="45:45">
       <c r="AS31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="45:45">
       <c r="AS32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="45:45">
       <c r="AS33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="45:45">
       <c r="AS34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="45:45">
       <c r="AS35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="45:45">
       <c r="AS36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="45:45">
       <c r="AS37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="45:45">
       <c r="AS38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="45:45">
       <c r="AS39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="45:45">
       <c r="AS40" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="45:45">
       <c r="AS41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="45:45">
       <c r="AS42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="45:45">
       <c r="AS43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="45:45">
       <c r="AS44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="AS45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="45:45">
       <c r="AS46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="45:45">
       <c r="AS47" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="45:45">
       <c r="AS48" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="45:45">
       <c r="AS49" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="45:45">
       <c r="AS50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="45:45">
       <c r="AS51" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="45:45">
       <c r="AS52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="45:45">
       <c r="AS53" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="45:45">
       <c r="AS54" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="45:45">
       <c r="AS55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="45:45">
       <c r="AS56" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="45:45">
       <c r="AS57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="45:45">
       <c r="AS58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="45:45">
       <c r="AS59" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="45:45">
       <c r="AS60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="45:45">
       <c r="AS61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="45:45">
       <c r="AS62" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="45:45">
       <c r="AS63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="45:45">
       <c r="AS64" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="45:45">
       <c r="AS65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="45:45">
       <c r="AS66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="45:45">
       <c r="AS67" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="45:45">
       <c r="AS68" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="45:45">
       <c r="AS69" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="45:45">
       <c r="AS70" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="45:45">
       <c r="AS71" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="45:45">
       <c r="AS72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="45:45">
       <c r="AS73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="45:45">
       <c r="AS74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="45:45">
       <c r="AS75" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="45:45">
       <c r="AS76" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="45:45">
       <c r="AS77" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="45:45">
       <c r="AS78" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="45:45">
       <c r="AS79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="45:45">
       <c r="AS80" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="45:45">
       <c r="AS81" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="45:45">
       <c r="AS82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="45:45">
       <c r="AS83" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="45:45">
       <c r="AS84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="45:45">
       <c r="AS85" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="45:45">
       <c r="AS86" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="45:45">
       <c r="AS87" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="45:45">
       <c r="AS88" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="45:45">
       <c r="AS89" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="45:45">
       <c r="AS90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="45:45">
       <c r="AS91" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="45:45">
       <c r="AS92" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="45:45">
       <c r="AS93" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="45:45">
       <c r="AS94" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="45:45">
       <c r="AS95" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="45:45">
       <c r="AS96" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="45:45">
       <c r="AS97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="45:45">
       <c r="AS98" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="45:45">
       <c r="AS99" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="45:45">
       <c r="AS100" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="45:45">
       <c r="AS101" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="45:45">
       <c r="AS102" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="45:45">
       <c r="AS103" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="45:45">
       <c r="AS104" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="45:45">
       <c r="AS105" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="45:45">
       <c r="AS106" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="45:45">
       <c r="AS107" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="45:45">
       <c r="AS108" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="45:45">
       <c r="AS109" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="45:45">
       <c r="AS110" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="45:45">
       <c r="AS111" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="45:45">
       <c r="AS112" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="45:45">
       <c r="AS113" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="45:45">
       <c r="AS114" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="45:45">
       <c r="AS115" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="45:45">
       <c r="AS116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="45:45">
       <c r="AS117" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="45:45">
       <c r="AS118" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="45:45">
       <c r="AS119" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="45:45">
       <c r="AS120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="45:45">
       <c r="AS121" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="45:45">
       <c r="AS122" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="45:45">
       <c r="AS123" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="45:45">
       <c r="AS124" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="45:45">
       <c r="AS125" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="45:45">
       <c r="AS126" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="45:45">
       <c r="AS127" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="45:45">
       <c r="AS128" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="45:45">
       <c r="AS129" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="45:45">
       <c r="AS130" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="45:45">
       <c r="AS131" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="45:45">
       <c r="AS132" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="45:45">
       <c r="AS133" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="45:45">
       <c r="AS134" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="45:45">
       <c r="AS135" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="45:45">
       <c r="AS136" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="45:45">
       <c r="AS137" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="45:45">
       <c r="AS138" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="45:45">
       <c r="AS139" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="45:45">
       <c r="AS140" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="45:45">
       <c r="AS141" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="45:45">
       <c r="AS142" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="143" spans="45:45">
       <c r="AS143" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="45:45">
       <c r="AS144" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="45:45">
       <c r="AS145" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="45:45">
       <c r="AS146" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="45:45">
       <c r="AS147" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="45:45">
       <c r="AS148" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="45:45">
       <c r="AS149" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" spans="45:45">
       <c r="AS150" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="45:45">
       <c r="AS151" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="152" spans="45:45">
       <c r="AS152" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="45:45">
       <c r="AS153" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="154" spans="45:45">
       <c r="AS154" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="155" spans="45:45">
       <c r="AS155" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="45:45">
       <c r="AS156" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="45:45">
       <c r="AS157" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="45:45">
       <c r="AS158" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" spans="45:45">
       <c r="AS159" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="160" spans="45:45">
       <c r="AS160" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="45:45">
       <c r="AS161" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="162" spans="45:45">
       <c r="AS162" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="163" spans="45:45">
       <c r="AS163" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="45:45">
       <c r="AS164" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="45:45">
       <c r="AS165" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="45:45">
       <c r="AS166" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="45:45">
       <c r="AS167" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" spans="45:45">
       <c r="AS168" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="169" spans="45:45">
       <c r="AS169" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" spans="45:45">
       <c r="AS170" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="171" spans="45:45">
       <c r="AS171" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="45:45">
       <c r="AS172" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="45:45">
       <c r="AS173" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="45:45">
       <c r="AS174" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="175" spans="45:45">
       <c r="AS175" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="45:45">
       <c r="AS176" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="177" spans="45:45">
       <c r="AS177" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="178" spans="45:45">
       <c r="AS178" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="45:45">
       <c r="AS179" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" spans="45:45">
       <c r="AS180" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" spans="45:45">
       <c r="AS181" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="45:45">
       <c r="AS182" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="183" spans="45:45">
       <c r="AS183" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="45:45">
       <c r="AS184" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="185" spans="45:45">
       <c r="AS185" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="45:45">
       <c r="AS186" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="45:45">
       <c r="AS187" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="45:45">
       <c r="AS188" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="45:45">
       <c r="AS189" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="45:45">
       <c r="AS190" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="45:45">
       <c r="AS191" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="45:45">
       <c r="AS192" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="45:45">
       <c r="AS193" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="45:45">
       <c r="AS194" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="45:45">
       <c r="AS195" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="196" spans="45:45">
       <c r="AS196" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="197" spans="45:45">
       <c r="AS197" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="198" spans="45:45">
       <c r="AS198" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="45:45">
       <c r="AS199" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" spans="45:45">
       <c r="AS200" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="45:45">
       <c r="AS201" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="45:45">
       <c r="AS202" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="45:45">
       <c r="AS203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="45:45">
       <c r="AS204" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="45:45">
       <c r="AS205" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="45:45">
       <c r="AS206" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="45:45">
       <c r="AS207" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="208" spans="45:45">
       <c r="AS208" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="45:45">
       <c r="AS209" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="45:45">
       <c r="AS210" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="45:45">
       <c r="AS211" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="45:45">
       <c r="AS212" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="45:45">
       <c r="AS213" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="45:45">
       <c r="AS214" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="45:45">
       <c r="AS215" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="45:45">
       <c r="AS216" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="217" spans="45:45">
       <c r="AS217" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="45:45">
       <c r="AS218" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="45:45">
       <c r="AS219" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="45:45">
       <c r="AS220" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="45:45">
       <c r="AS221" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="45:45">
       <c r="AS222" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="223" spans="45:45">
       <c r="AS223" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="45:45">
       <c r="AS224" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="225" spans="45:45">
       <c r="AS225" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="226" spans="45:45">
       <c r="AS226" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="227" spans="45:45">
       <c r="AS227" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="45:45">
       <c r="AS228" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="229" spans="45:45">
       <c r="AS229" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="230" spans="45:45">
       <c r="AS230" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="231" spans="45:45">
       <c r="AS231" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="232" spans="45:45">
       <c r="AS232" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="233" spans="45:45">
       <c r="AS233" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="234" spans="45:45">
       <c r="AS234" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235" spans="45:45">
       <c r="AS235" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="236" spans="45:45">
       <c r="AS236" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="237" spans="45:45">
       <c r="AS237" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="238" spans="45:45">
       <c r="AS238" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="239" spans="45:45">
       <c r="AS239" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="240" spans="45:45">
       <c r="AS240" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="241" spans="45:45">
       <c r="AS241" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="242" spans="45:45">
       <c r="AS242" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="243" spans="45:45">
       <c r="AS243" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="244" spans="45:45">
       <c r="AS244" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="245" spans="45:45">
       <c r="AS245" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="246" spans="45:45">
       <c r="AS246" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247" spans="45:45">
       <c r="AS247" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="248" spans="45:45">
       <c r="AS248" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="249" spans="45:45">
       <c r="AS249" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="250" spans="45:45">
       <c r="AS250" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="251" spans="45:45">
       <c r="AS251" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="252" spans="45:45">
       <c r="AS252" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="253" spans="45:45">
       <c r="AS253" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" spans="45:45">
       <c r="AS254" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="45:45">
       <c r="AS255" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="256" spans="45:45">
       <c r="AS256" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="45:45">
       <c r="AS257" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="258" spans="45:45">
       <c r="AS258" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="259" spans="45:45">
       <c r="AS259" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="260" spans="45:45">
       <c r="AS260" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="261" spans="45:45">
       <c r="AS261" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="262" spans="45:45">
       <c r="AS262" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="263" spans="45:45">
       <c r="AS263" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="264" spans="45:45">
       <c r="AS264" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="45:45">
       <c r="AS265" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="45:45">
       <c r="AS266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267" spans="45:45">
       <c r="AS267" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="268" spans="45:45">
       <c r="AS268" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="269" spans="45:45">
       <c r="AS269" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="45:45">
       <c r="AS270" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" spans="45:45">
       <c r="AS271" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="272" spans="45:45">
       <c r="AS272" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="273" spans="45:45">
       <c r="AS273" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="45:45">
       <c r="AS274" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="275" spans="45:45">
       <c r="AS275" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="276" spans="45:45">
       <c r="AS276" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="45:45">
       <c r="AS277" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="278" spans="45:45">
       <c r="AS278" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="279" spans="45:45">
       <c r="AS279" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="280" spans="45:45">
       <c r="AS280" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="281" spans="45:45">
       <c r="AS281" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="282" spans="45:45">
       <c r="AS282" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="283" spans="45:45">
       <c r="AS283" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="284" spans="45:45">
       <c r="AS284" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="285" spans="45:45">
       <c r="AS285" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="286" spans="45:45">
       <c r="AS286" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="287" spans="45:45">
       <c r="AS287" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="288" spans="45:45">
       <c r="AS288" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="686">
   <si>
     <t>alias</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2628,7 +2631,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2672,7 +2675,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2702,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3421,6 +3424,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3445,27 +3453,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3488,122 +3496,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3630,366 +3638,366 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -4027,1495 +4035,1495 @@
   <sheetData>
     <row r="1" spans="5:45">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AS1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="5:45">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AD2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AS2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="5:45">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AS3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="5:45">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AS4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="5:45">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="5:45">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AS6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="5:45">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AS7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="5:45">
       <c r="AS8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="5:45">
       <c r="AS9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="5:45">
       <c r="AS10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="5:45">
       <c r="AS11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="5:45">
       <c r="AS12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="5:45">
       <c r="AS13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="5:45">
       <c r="AS14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="5:45">
       <c r="AS15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="5:45">
       <c r="AS16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="45:45">
       <c r="AS17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="45:45">
       <c r="AS18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="45:45">
       <c r="AS19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="45:45">
       <c r="AS20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="45:45">
       <c r="AS21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="45:45">
       <c r="AS22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="45:45">
       <c r="AS23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="45:45">
       <c r="AS24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="45:45">
       <c r="AS25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="45:45">
       <c r="AS26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="45:45">
       <c r="AS27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="45:45">
       <c r="AS28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="45:45">
       <c r="AS29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="45:45">
       <c r="AS30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="45:45">
       <c r="AS31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="45:45">
       <c r="AS32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="45:45">
       <c r="AS33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="45:45">
       <c r="AS34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="45:45">
       <c r="AS35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="45:45">
       <c r="AS36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="45:45">
       <c r="AS37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="45:45">
       <c r="AS38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="45:45">
       <c r="AS39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="45:45">
       <c r="AS40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="45:45">
       <c r="AS41" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="45:45">
       <c r="AS42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="45:45">
       <c r="AS43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="45:45">
       <c r="AS44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="AS45" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="45:45">
       <c r="AS46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="45:45">
       <c r="AS47" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="45:45">
       <c r="AS48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="45:45">
       <c r="AS49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="45:45">
       <c r="AS50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="45:45">
       <c r="AS51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="45:45">
       <c r="AS52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="45:45">
       <c r="AS53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="45:45">
       <c r="AS54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="45:45">
       <c r="AS55" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="45:45">
       <c r="AS56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="45:45">
       <c r="AS57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="45:45">
       <c r="AS58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="45:45">
       <c r="AS59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="45:45">
       <c r="AS60" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="45:45">
       <c r="AS61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="45:45">
       <c r="AS62" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="45:45">
       <c r="AS63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="45:45">
       <c r="AS64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="45:45">
       <c r="AS65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="45:45">
       <c r="AS66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="45:45">
       <c r="AS67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="45:45">
       <c r="AS68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="45:45">
       <c r="AS69" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="45:45">
       <c r="AS70" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="45:45">
       <c r="AS71" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="45:45">
       <c r="AS72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="45:45">
       <c r="AS73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="45:45">
       <c r="AS74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="45:45">
       <c r="AS75" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="45:45">
       <c r="AS76" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="45:45">
       <c r="AS77" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="45:45">
       <c r="AS78" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="45:45">
       <c r="AS79" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="45:45">
       <c r="AS80" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="45:45">
       <c r="AS81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="45:45">
       <c r="AS82" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="45:45">
       <c r="AS83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="45:45">
       <c r="AS84" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="45:45">
       <c r="AS85" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="45:45">
       <c r="AS86" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="45:45">
       <c r="AS87" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="45:45">
       <c r="AS88" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="45:45">
       <c r="AS89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="45:45">
       <c r="AS90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="45:45">
       <c r="AS91" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="45:45">
       <c r="AS92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="45:45">
       <c r="AS93" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="45:45">
       <c r="AS94" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="45:45">
       <c r="AS95" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="45:45">
       <c r="AS96" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="45:45">
       <c r="AS97" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="45:45">
       <c r="AS98" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="45:45">
       <c r="AS99" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="45:45">
       <c r="AS100" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="45:45">
       <c r="AS101" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="45:45">
       <c r="AS102" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="45:45">
       <c r="AS103" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="45:45">
       <c r="AS104" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="45:45">
       <c r="AS105" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="45:45">
       <c r="AS106" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="45:45">
       <c r="AS107" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="45:45">
       <c r="AS108" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="45:45">
       <c r="AS109" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="45:45">
       <c r="AS110" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="45:45">
       <c r="AS111" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="45:45">
       <c r="AS112" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="45:45">
       <c r="AS113" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="45:45">
       <c r="AS114" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="45:45">
       <c r="AS115" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="45:45">
       <c r="AS116" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="45:45">
       <c r="AS117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="45:45">
       <c r="AS118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="45:45">
       <c r="AS119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="45:45">
       <c r="AS120" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="45:45">
       <c r="AS121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="45:45">
       <c r="AS122" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="45:45">
       <c r="AS123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="45:45">
       <c r="AS124" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="45:45">
       <c r="AS125" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="45:45">
       <c r="AS126" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="45:45">
       <c r="AS127" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="45:45">
       <c r="AS128" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="45:45">
       <c r="AS129" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="45:45">
       <c r="AS130" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="45:45">
       <c r="AS131" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="45:45">
       <c r="AS132" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="45:45">
       <c r="AS133" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="45:45">
       <c r="AS134" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="45:45">
       <c r="AS135" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="45:45">
       <c r="AS136" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="45:45">
       <c r="AS137" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="45:45">
       <c r="AS138" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="45:45">
       <c r="AS139" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="45:45">
       <c r="AS140" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="45:45">
       <c r="AS141" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="142" spans="45:45">
       <c r="AS142" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="45:45">
       <c r="AS143" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="45:45">
       <c r="AS144" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="45:45">
       <c r="AS145" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146" spans="45:45">
       <c r="AS146" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="45:45">
       <c r="AS147" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="45:45">
       <c r="AS148" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="149" spans="45:45">
       <c r="AS149" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="45:45">
       <c r="AS150" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="151" spans="45:45">
       <c r="AS151" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="152" spans="45:45">
       <c r="AS152" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="45:45">
       <c r="AS153" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="45:45">
       <c r="AS154" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="45:45">
       <c r="AS155" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="45:45">
       <c r="AS156" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="45:45">
       <c r="AS157" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" spans="45:45">
       <c r="AS158" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="45:45">
       <c r="AS159" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="45:45">
       <c r="AS160" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="45:45">
       <c r="AS161" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="45:45">
       <c r="AS162" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="45:45">
       <c r="AS163" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="45:45">
       <c r="AS164" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="45:45">
       <c r="AS165" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="45:45">
       <c r="AS166" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="45:45">
       <c r="AS167" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="45:45">
       <c r="AS168" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="45:45">
       <c r="AS169" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="170" spans="45:45">
       <c r="AS170" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="45:45">
       <c r="AS171" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172" spans="45:45">
       <c r="AS172" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="173" spans="45:45">
       <c r="AS173" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="174" spans="45:45">
       <c r="AS174" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="45:45">
       <c r="AS175" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="176" spans="45:45">
       <c r="AS176" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="177" spans="45:45">
       <c r="AS177" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="178" spans="45:45">
       <c r="AS178" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="45:45">
       <c r="AS179" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="45:45">
       <c r="AS180" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="45:45">
       <c r="AS181" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" spans="45:45">
       <c r="AS182" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="45:45">
       <c r="AS183" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="184" spans="45:45">
       <c r="AS184" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="45:45">
       <c r="AS185" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="45:45">
       <c r="AS186" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="45:45">
       <c r="AS187" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="45:45">
       <c r="AS188" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="45:45">
       <c r="AS189" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" spans="45:45">
       <c r="AS190" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="191" spans="45:45">
       <c r="AS191" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="45:45">
       <c r="AS192" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="193" spans="45:45">
       <c r="AS193" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="194" spans="45:45">
       <c r="AS194" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="45:45">
       <c r="AS195" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="196" spans="45:45">
       <c r="AS196" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="197" spans="45:45">
       <c r="AS197" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="45:45">
       <c r="AS198" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="199" spans="45:45">
       <c r="AS199" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="45:45">
       <c r="AS200" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="45:45">
       <c r="AS201" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="45:45">
       <c r="AS202" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="45:45">
       <c r="AS203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="45:45">
       <c r="AS204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205" spans="45:45">
       <c r="AS205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="45:45">
       <c r="AS206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="45:45">
       <c r="AS207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="45:45">
       <c r="AS208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="45:45">
       <c r="AS209" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="45:45">
       <c r="AS210" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="45:45">
       <c r="AS211" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="45:45">
       <c r="AS212" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="213" spans="45:45">
       <c r="AS213" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="45:45">
       <c r="AS214" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="45:45">
       <c r="AS215" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="216" spans="45:45">
       <c r="AS216" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="45:45">
       <c r="AS217" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="45:45">
       <c r="AS218" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="45:45">
       <c r="AS219" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="45:45">
       <c r="AS220" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="45:45">
       <c r="AS221" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="45:45">
       <c r="AS222" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="45:45">
       <c r="AS223" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="224" spans="45:45">
       <c r="AS224" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="225" spans="45:45">
       <c r="AS225" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="45:45">
       <c r="AS226" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="45:45">
       <c r="AS227" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="45:45">
       <c r="AS228" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="45:45">
       <c r="AS229" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="45:45">
       <c r="AS230" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="231" spans="45:45">
       <c r="AS231" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="232" spans="45:45">
       <c r="AS232" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="233" spans="45:45">
       <c r="AS233" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234" spans="45:45">
       <c r="AS234" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="235" spans="45:45">
       <c r="AS235" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="236" spans="45:45">
       <c r="AS236" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="237" spans="45:45">
       <c r="AS237" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="45:45">
       <c r="AS238" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="239" spans="45:45">
       <c r="AS239" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="240" spans="45:45">
       <c r="AS240" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="241" spans="45:45">
       <c r="AS241" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="242" spans="45:45">
       <c r="AS242" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="243" spans="45:45">
       <c r="AS243" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="244" spans="45:45">
       <c r="AS244" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="245" spans="45:45">
       <c r="AS245" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="246" spans="45:45">
       <c r="AS246" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="247" spans="45:45">
       <c r="AS247" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="248" spans="45:45">
       <c r="AS248" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="45:45">
       <c r="AS249" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="250" spans="45:45">
       <c r="AS250" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="251" spans="45:45">
       <c r="AS251" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="45:45">
       <c r="AS252" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="253" spans="45:45">
       <c r="AS253" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="254" spans="45:45">
       <c r="AS254" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255" spans="45:45">
       <c r="AS255" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="45:45">
       <c r="AS256" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="45:45">
       <c r="AS257" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="45:45">
       <c r="AS258" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="45:45">
       <c r="AS259" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="45:45">
       <c r="AS260" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="261" spans="45:45">
       <c r="AS261" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="45:45">
       <c r="AS262" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="45:45">
       <c r="AS263" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="45:45">
       <c r="AS264" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="45:45">
       <c r="AS265" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="266" spans="45:45">
       <c r="AS266" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267" spans="45:45">
       <c r="AS267" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="268" spans="45:45">
       <c r="AS268" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="45:45">
       <c r="AS269" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="270" spans="45:45">
       <c r="AS270" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="271" spans="45:45">
       <c r="AS271" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="272" spans="45:45">
       <c r="AS272" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="45:45">
       <c r="AS273" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="274" spans="45:45">
       <c r="AS274" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="275" spans="45:45">
       <c r="AS275" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" spans="45:45">
       <c r="AS276" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="277" spans="45:45">
       <c r="AS277" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="278" spans="45:45">
       <c r="AS278" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="279" spans="45:45">
       <c r="AS279" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="280" spans="45:45">
       <c r="AS280" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="281" spans="45:45">
       <c r="AS281" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="282" spans="45:45">
       <c r="AS282" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="283" spans="45:45">
       <c r="AS283" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="45:45">
       <c r="AS284" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="285" spans="45:45">
       <c r="AS285" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="286" spans="45:45">
       <c r="AS286" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="287" spans="45:45">
       <c r="AS287" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" spans="45:45">
       <c r="AS288" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
   <si>
     <t>alias</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2631,7 +2634,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2675,7 +2678,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2705,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3429,6 +3432,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3453,27 +3461,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3496,122 +3504,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3638,366 +3646,366 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -4035,1495 +4043,1495 @@
   <sheetData>
     <row r="1" spans="5:45">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AD1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AS1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="5:45">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AD2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AS2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="5:45">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AS3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="5:45">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="5:45">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AS5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="5:45">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AS6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="5:45">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AS7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="5:45">
       <c r="AS8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="5:45">
       <c r="AS9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="5:45">
       <c r="AS10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="5:45">
       <c r="AS11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="5:45">
       <c r="AS12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="5:45">
       <c r="AS13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="5:45">
       <c r="AS14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="5:45">
       <c r="AS15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="5:45">
       <c r="AS16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="45:45">
       <c r="AS17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="45:45">
       <c r="AS18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="45:45">
       <c r="AS19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="45:45">
       <c r="AS20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="45:45">
       <c r="AS21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="45:45">
       <c r="AS22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="45:45">
       <c r="AS23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="45:45">
       <c r="AS24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="45:45">
       <c r="AS25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="45:45">
       <c r="AS26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="45:45">
       <c r="AS27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="45:45">
       <c r="AS28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="45:45">
       <c r="AS29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="45:45">
       <c r="AS30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="45:45">
       <c r="AS31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="45:45">
       <c r="AS32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="45:45">
       <c r="AS33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="45:45">
       <c r="AS34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="45:45">
       <c r="AS35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="45:45">
       <c r="AS36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="45:45">
       <c r="AS37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="45:45">
       <c r="AS38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="45:45">
       <c r="AS39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="45:45">
       <c r="AS40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="45:45">
       <c r="AS41" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="45:45">
       <c r="AS42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="45:45">
       <c r="AS43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="45:45">
       <c r="AS44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="AS45" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="45:45">
       <c r="AS46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="45:45">
       <c r="AS47" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="45:45">
       <c r="AS48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="45:45">
       <c r="AS49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="45:45">
       <c r="AS50" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="45:45">
       <c r="AS51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="45:45">
       <c r="AS52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="45:45">
       <c r="AS53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="45:45">
       <c r="AS54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="45:45">
       <c r="AS55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="45:45">
       <c r="AS56" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="45:45">
       <c r="AS57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="45:45">
       <c r="AS58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="45:45">
       <c r="AS59" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="45:45">
       <c r="AS60" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="45:45">
       <c r="AS61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="45:45">
       <c r="AS62" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="45:45">
       <c r="AS63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="45:45">
       <c r="AS64" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="45:45">
       <c r="AS65" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="45:45">
       <c r="AS66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="45:45">
       <c r="AS67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="45:45">
       <c r="AS68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="45:45">
       <c r="AS69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="45:45">
       <c r="AS70" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="45:45">
       <c r="AS71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="45:45">
       <c r="AS72" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="45:45">
       <c r="AS73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="45:45">
       <c r="AS74" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="45:45">
       <c r="AS75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="45:45">
       <c r="AS76" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="45:45">
       <c r="AS77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="45:45">
       <c r="AS78" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="45:45">
       <c r="AS79" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="45:45">
       <c r="AS80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="45:45">
       <c r="AS81" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="45:45">
       <c r="AS82" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="45:45">
       <c r="AS83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="45:45">
       <c r="AS84" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="45:45">
       <c r="AS85" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="45:45">
       <c r="AS86" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="45:45">
       <c r="AS87" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="45:45">
       <c r="AS88" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="45:45">
       <c r="AS89" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="45:45">
       <c r="AS90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="45:45">
       <c r="AS91" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="45:45">
       <c r="AS92" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="45:45">
       <c r="AS93" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="45:45">
       <c r="AS94" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="45:45">
       <c r="AS95" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="45:45">
       <c r="AS96" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="45:45">
       <c r="AS97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="45:45">
       <c r="AS98" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="45:45">
       <c r="AS99" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="45:45">
       <c r="AS100" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="45:45">
       <c r="AS101" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="45:45">
       <c r="AS102" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="45:45">
       <c r="AS103" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="45:45">
       <c r="AS104" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="45:45">
       <c r="AS105" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="45:45">
       <c r="AS106" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="45:45">
       <c r="AS107" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="45:45">
       <c r="AS108" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="45:45">
       <c r="AS109" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="45:45">
       <c r="AS110" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="45:45">
       <c r="AS111" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="45:45">
       <c r="AS112" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="45:45">
       <c r="AS113" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="45:45">
       <c r="AS114" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="45:45">
       <c r="AS115" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="45:45">
       <c r="AS116" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="45:45">
       <c r="AS117" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="45:45">
       <c r="AS118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="45:45">
       <c r="AS119" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" spans="45:45">
       <c r="AS120" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="45:45">
       <c r="AS121" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="45:45">
       <c r="AS122" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="45:45">
       <c r="AS123" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="45:45">
       <c r="AS124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="45:45">
       <c r="AS125" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="45:45">
       <c r="AS126" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="45:45">
       <c r="AS127" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="45:45">
       <c r="AS128" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="45:45">
       <c r="AS129" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="45:45">
       <c r="AS130" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="45:45">
       <c r="AS131" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="45:45">
       <c r="AS132" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="45:45">
       <c r="AS133" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="45:45">
       <c r="AS134" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="45:45">
       <c r="AS135" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="45:45">
       <c r="AS136" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="45:45">
       <c r="AS137" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="45:45">
       <c r="AS138" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="45:45">
       <c r="AS139" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="45:45">
       <c r="AS140" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="45:45">
       <c r="AS141" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="142" spans="45:45">
       <c r="AS142" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="45:45">
       <c r="AS143" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="45:45">
       <c r="AS144" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" spans="45:45">
       <c r="AS145" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="45:45">
       <c r="AS146" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="147" spans="45:45">
       <c r="AS147" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148" spans="45:45">
       <c r="AS148" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="45:45">
       <c r="AS149" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" spans="45:45">
       <c r="AS150" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151" spans="45:45">
       <c r="AS151" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" spans="45:45">
       <c r="AS152" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="45:45">
       <c r="AS153" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" spans="45:45">
       <c r="AS154" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="45:45">
       <c r="AS155" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="156" spans="45:45">
       <c r="AS156" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="45:45">
       <c r="AS157" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" spans="45:45">
       <c r="AS158" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" spans="45:45">
       <c r="AS159" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="45:45">
       <c r="AS160" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="161" spans="45:45">
       <c r="AS161" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="45:45">
       <c r="AS162" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="45:45">
       <c r="AS163" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="45:45">
       <c r="AS164" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" spans="45:45">
       <c r="AS165" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="45:45">
       <c r="AS166" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="167" spans="45:45">
       <c r="AS167" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" spans="45:45">
       <c r="AS168" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169" spans="45:45">
       <c r="AS169" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="45:45">
       <c r="AS170" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="171" spans="45:45">
       <c r="AS171" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="172" spans="45:45">
       <c r="AS172" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="173" spans="45:45">
       <c r="AS173" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="45:45">
       <c r="AS174" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="175" spans="45:45">
       <c r="AS175" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="176" spans="45:45">
       <c r="AS176" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="45:45">
       <c r="AS177" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" spans="45:45">
       <c r="AS178" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="45:45">
       <c r="AS179" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="180" spans="45:45">
       <c r="AS180" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="45:45">
       <c r="AS181" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="182" spans="45:45">
       <c r="AS182" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="183" spans="45:45">
       <c r="AS183" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="184" spans="45:45">
       <c r="AS184" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185" spans="45:45">
       <c r="AS185" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="186" spans="45:45">
       <c r="AS186" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="187" spans="45:45">
       <c r="AS187" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="45:45">
       <c r="AS188" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="189" spans="45:45">
       <c r="AS189" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="190" spans="45:45">
       <c r="AS190" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="45:45">
       <c r="AS191" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="192" spans="45:45">
       <c r="AS192" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="45:45">
       <c r="AS193" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="194" spans="45:45">
       <c r="AS194" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="45:45">
       <c r="AS195" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="45:45">
       <c r="AS196" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="197" spans="45:45">
       <c r="AS197" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="198" spans="45:45">
       <c r="AS198" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="45:45">
       <c r="AS199" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="45:45">
       <c r="AS200" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="45:45">
       <c r="AS201" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="45:45">
       <c r="AS202" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="45:45">
       <c r="AS203" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="45:45">
       <c r="AS204" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="45:45">
       <c r="AS205" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="45:45">
       <c r="AS206" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="45:45">
       <c r="AS207" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="45:45">
       <c r="AS208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="45:45">
       <c r="AS209" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="45:45">
       <c r="AS210" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="45:45">
       <c r="AS211" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="212" spans="45:45">
       <c r="AS212" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="213" spans="45:45">
       <c r="AS213" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="214" spans="45:45">
       <c r="AS214" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="215" spans="45:45">
       <c r="AS215" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="45:45">
       <c r="AS216" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="45:45">
       <c r="AS217" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="45:45">
       <c r="AS218" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="45:45">
       <c r="AS219" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="220" spans="45:45">
       <c r="AS220" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="221" spans="45:45">
       <c r="AS221" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="222" spans="45:45">
       <c r="AS222" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="223" spans="45:45">
       <c r="AS223" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="45:45">
       <c r="AS224" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="45:45">
       <c r="AS225" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="226" spans="45:45">
       <c r="AS226" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="227" spans="45:45">
       <c r="AS227" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="45:45">
       <c r="AS228" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="45:45">
       <c r="AS229" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="230" spans="45:45">
       <c r="AS230" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="231" spans="45:45">
       <c r="AS231" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="232" spans="45:45">
       <c r="AS232" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="233" spans="45:45">
       <c r="AS233" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" spans="45:45">
       <c r="AS234" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="235" spans="45:45">
       <c r="AS235" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="236" spans="45:45">
       <c r="AS236" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="237" spans="45:45">
       <c r="AS237" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="238" spans="45:45">
       <c r="AS238" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="239" spans="45:45">
       <c r="AS239" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="240" spans="45:45">
       <c r="AS240" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="241" spans="45:45">
       <c r="AS241" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="242" spans="45:45">
       <c r="AS242" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="243" spans="45:45">
       <c r="AS243" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="244" spans="45:45">
       <c r="AS244" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="245" spans="45:45">
       <c r="AS245" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="246" spans="45:45">
       <c r="AS246" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="247" spans="45:45">
       <c r="AS247" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="248" spans="45:45">
       <c r="AS248" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="249" spans="45:45">
       <c r="AS249" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="250" spans="45:45">
       <c r="AS250" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="251" spans="45:45">
       <c r="AS251" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="252" spans="45:45">
       <c r="AS252" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="253" spans="45:45">
       <c r="AS253" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="254" spans="45:45">
       <c r="AS254" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="255" spans="45:45">
       <c r="AS255" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="45:45">
       <c r="AS256" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="257" spans="45:45">
       <c r="AS257" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="258" spans="45:45">
       <c r="AS258" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="259" spans="45:45">
       <c r="AS259" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="260" spans="45:45">
       <c r="AS260" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="261" spans="45:45">
       <c r="AS261" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="262" spans="45:45">
       <c r="AS262" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="45:45">
       <c r="AS263" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="45:45">
       <c r="AS264" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="265" spans="45:45">
       <c r="AS265" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="266" spans="45:45">
       <c r="AS266" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="267" spans="45:45">
       <c r="AS267" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="45:45">
       <c r="AS268" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="269" spans="45:45">
       <c r="AS269" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="270" spans="45:45">
       <c r="AS270" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="271" spans="45:45">
       <c r="AS271" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="45:45">
       <c r="AS272" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="273" spans="45:45">
       <c r="AS273" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="274" spans="45:45">
       <c r="AS274" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="275" spans="45:45">
       <c r="AS275" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="276" spans="45:45">
       <c r="AS276" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="277" spans="45:45">
       <c r="AS277" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="278" spans="45:45">
       <c r="AS278" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="279" spans="45:45">
       <c r="AS279" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="280" spans="45:45">
       <c r="AS280" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="281" spans="45:45">
       <c r="AS281" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="282" spans="45:45">
       <c r="AS282" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="283" spans="45:45">
       <c r="AS283" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="284" spans="45:45">
       <c r="AS284" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="45:45">
       <c r="AS285" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="286" spans="45:45">
       <c r="AS286" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="287" spans="45:45">
       <c r="AS287" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="288" spans="45:45">
       <c r="AS288" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AD$1:$AD$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="692">
   <si>
     <t>alias</t>
   </si>
@@ -868,73 +868,73 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic source</t>
+    <t>metagenomic_source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample derived from</t>
+    <t>sample_derived_from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number of standard tRNAs extracted</t>
+    <t>number_of_standard_trnas_extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature prediction</t>
+    <t>feature_prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity search method</t>
+    <t>similarity_search_method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
@@ -946,43 +946,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>16s recovered</t>
+    <t>_16s_recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>16S recovery software</t>
+    <t>_16s_recovery_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>tRNA extraction software</t>
+    <t>trna_extraction_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness score</t>
+    <t>completeness_score</t>
   </si>
   <si>
     <t>(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness software</t>
+    <t>completeness_software</t>
   </si>
   <si>
     <t>(Mandatory) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness approach</t>
+    <t>completeness_approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination score</t>
+    <t>contamination_score</t>
   </si>
   <si>
     <t>(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -994,37 +994,37 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination screening input</t>
+    <t>contamination_screening_input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination screening parameters</t>
+    <t>contamination_screening_parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination software</t>
+    <t>decontamination_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
   </si>
   <si>
-    <t>binning software</t>
+    <t>binning_software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
   </si>
   <si>
-    <t>reassembly post binning</t>
+    <t>reassembly_post_binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>MAG coverage software</t>
+    <t>mag_coverage_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
@@ -1039,19 +1039,19 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly quality</t>
+    <t>assembly_quality</t>
   </si>
   <si>
     <t>(Mandatory) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
   </si>
   <si>
-    <t>binning parameters</t>
+    <t>binning_parameters</t>
   </si>
   <si>
     <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic identity marker</t>
+    <t>taxonomic_identity_marker</t>
   </si>
   <si>
     <t>(Mandatory) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1063,7 +1063,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1075,37 +1075,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1117,13 +1117,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>size_fraction_selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1342,9 +1342,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1363,6 +1360,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1564,6 +1564,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1573,9 +1576,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1615,7 +1615,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1684,6 +1684,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1759,6 +1762,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1780,6 +1786,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1825,6 +1834,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1837,6 +1849,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1846,9 +1861,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1873,6 +1885,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1933,12 +1948,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1996,91 +2011,91 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference database(s)</t>
+    <t>reference_databases</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic acid extraction</t>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly software</t>
+    <t>assembly_software</t>
   </si>
   <si>
     <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2095,7 +2110,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3772,55 +3787,55 @@
         <v>362</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
@@ -3957,55 +3972,55 @@
         <v>363</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4050,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AS289"/>
+  <dimension ref="E1:AS294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5534,6 +5549,31 @@
         <v>652</v>
       </c>
     </row>
+    <row r="290" spans="45:45">
+      <c r="AS290" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45">
+      <c r="AS291" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45">
+      <c r="AS292" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45">
+      <c r="AS293" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45">
+      <c r="AS294" t="s">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AD$1:$AD$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
   <si>
     <t>alias</t>
   </si>
@@ -868,73 +868,73 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic_source</t>
+    <t>metagenomic source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample_derived_from</t>
+    <t>sample derived from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number_of_standard_trnas_extracted</t>
+    <t>number of standard tRNAs extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature_prediction</t>
+    <t>feature prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity_search_method</t>
+    <t>similarity search method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
@@ -946,43 +946,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>_16s_recovered</t>
+    <t>16s recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>_16s_recovery_software</t>
+    <t>16S recovery software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>trna_extraction_software</t>
+    <t>tRNA extraction software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness_score</t>
+    <t>completeness score</t>
   </si>
   <si>
     <t>(Mandatory) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness_software</t>
+    <t>completeness software</t>
   </si>
   <si>
     <t>(Mandatory) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness_approach</t>
+    <t>completeness approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination_score</t>
+    <t>contamination score</t>
   </si>
   <si>
     <t>(Mandatory) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -994,37 +994,37 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination_screening_input</t>
+    <t>contamination screening input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination_screening_parameters</t>
+    <t>contamination screening parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination_software</t>
+    <t>decontamination software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
   </si>
   <si>
-    <t>binning_software</t>
+    <t>binning software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
   </si>
   <si>
-    <t>reassembly_post_binning</t>
+    <t>reassembly post binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>mag_coverage_software</t>
+    <t>MAG coverage software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
@@ -1039,19 +1039,19 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly_quality</t>
+    <t>assembly quality</t>
   </si>
   <si>
     <t>(Mandatory) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
   </si>
   <si>
-    <t>binning_parameters</t>
+    <t>binning parameters</t>
   </si>
   <si>
     <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic_identity_marker</t>
+    <t>taxonomic identity marker</t>
   </si>
   <si>
     <t>(Mandatory) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1063,7 +1063,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1075,37 +1075,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1117,13 +1117,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>size_fraction_selected</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1342,6 +1342,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1360,9 +1363,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1564,9 +1564,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1576,6 +1573,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1615,7 +1615,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1684,9 +1684,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1762,9 +1759,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1786,9 +1780,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1834,9 +1825,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1849,9 +1837,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1861,6 +1846,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1885,9 +1873,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1948,12 +1933,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2011,91 +1996,91 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference_databases</t>
+    <t>reference database(s)</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic_acid_extraction</t>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly_software</t>
+    <t>assembly software</t>
   </si>
   <si>
     <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2110,7 +2095,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3787,55 +3772,55 @@
         <v>362</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="150" customHeight="1">
@@ -3972,55 +3957,55 @@
         <v>363</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4035,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AS294"/>
+  <dimension ref="E1:AS289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5549,31 +5534,6 @@
         <v>652</v>
       </c>
     </row>
-    <row r="290" spans="45:45">
-      <c r="AS290" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="291" spans="45:45">
-      <c r="AS291" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="292" spans="45:45">
-      <c r="AS292" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="293" spans="45:45">
-      <c r="AS293" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="294" spans="45:45">
-      <c r="AS294" t="s">
-        <v>657</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -17,17 +17,17 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AD$1:$AD$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AF$1:$AF$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$AB$1:$AB$2</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$AD$1:$AD$2</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$G$1:$G$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="691">
   <si>
     <t>alias</t>
   </si>
@@ -839,6 +839,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3629,7 +3641,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3638,7 +3650,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3652,10 +3664,10 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>281</v>
@@ -3688,10 +3700,10 @@
         <v>299</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -3709,10 +3721,10 @@
         <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>323</v>
@@ -3727,10 +3739,10 @@
         <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>338</v>
@@ -3772,10 +3784,10 @@
         <v>362</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>364</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>655</v>
+        <v>366</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>657</v>
@@ -3822,8 +3834,14 @@
       <c r="BI1" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" ht="150" customHeight="1">
+      <c r="BJ1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3837,10 +3855,10 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>282</v>
@@ -3873,10 +3891,10 @@
         <v>300</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>308</v>
@@ -3894,10 +3912,10 @@
         <v>316</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>324</v>
@@ -3912,10 +3930,10 @@
         <v>330</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>339</v>
@@ -3957,10 +3975,10 @@
         <v>363</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>365</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>656</v>
+        <v>367</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>658</v>
@@ -4007,25 +4025,31 @@
       <c r="BI2" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="BJ2" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>690</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>16srecovered</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>contaminationscreeninginput</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4035,1503 +4059,1503 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AS289"/>
+  <dimension ref="G1:AU289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:45">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>301</v>
-      </c>
-      <c r="X1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>301</v>
+    <row r="1" spans="7:47">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>321</v>
       </c>
       <c r="AD1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="5:45">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>302</v>
-      </c>
-      <c r="X2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="7:47">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>322</v>
       </c>
       <c r="AD2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="5:45">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="5:45">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="5:45">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="5:45">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="5:45">
-      <c r="E7" t="s">
+    <row r="3" spans="7:47">
+      <c r="G3" t="s">
         <v>276</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AF3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="5:45">
-      <c r="AS8" t="s">
+    <row r="4" spans="7:47">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="5:45">
-      <c r="AS9" t="s">
+    <row r="5" spans="7:47">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="5:45">
-      <c r="AS10" t="s">
+    <row r="6" spans="7:47">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="5:45">
-      <c r="AS11" t="s">
+    <row r="7" spans="7:47">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="5:45">
-      <c r="AS12" t="s">
+    <row r="8" spans="7:47">
+      <c r="AU8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="5:45">
-      <c r="AS13" t="s">
+    <row r="9" spans="7:47">
+      <c r="AU9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="5:45">
-      <c r="AS14" t="s">
+    <row r="10" spans="7:47">
+      <c r="AU10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="5:45">
-      <c r="AS15" t="s">
+    <row r="11" spans="7:47">
+      <c r="AU11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="5:45">
-      <c r="AS16" t="s">
+    <row r="12" spans="7:47">
+      <c r="AU12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="45:45">
-      <c r="AS17" t="s">
+    <row r="13" spans="7:47">
+      <c r="AU13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="45:45">
-      <c r="AS18" t="s">
+    <row r="14" spans="7:47">
+      <c r="AU14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="45:45">
-      <c r="AS19" t="s">
+    <row r="15" spans="7:47">
+      <c r="AU15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="45:45">
-      <c r="AS20" t="s">
+    <row r="16" spans="7:47">
+      <c r="AU16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="45:45">
-      <c r="AS21" t="s">
+    <row r="17" spans="47:47">
+      <c r="AU17" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="45:45">
-      <c r="AS22" t="s">
+    <row r="18" spans="47:47">
+      <c r="AU18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="45:45">
-      <c r="AS23" t="s">
+    <row r="19" spans="47:47">
+      <c r="AU19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="45:45">
-      <c r="AS24" t="s">
+    <row r="20" spans="47:47">
+      <c r="AU20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="45:45">
-      <c r="AS25" t="s">
+    <row r="21" spans="47:47">
+      <c r="AU21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="45:45">
-      <c r="AS26" t="s">
+    <row r="22" spans="47:47">
+      <c r="AU22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="45:45">
-      <c r="AS27" t="s">
+    <row r="23" spans="47:47">
+      <c r="AU23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="45:45">
-      <c r="AS28" t="s">
+    <row r="24" spans="47:47">
+      <c r="AU24" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="45:45">
-      <c r="AS29" t="s">
+    <row r="25" spans="47:47">
+      <c r="AU25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="45:45">
-      <c r="AS30" t="s">
+    <row r="26" spans="47:47">
+      <c r="AU26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="45:45">
-      <c r="AS31" t="s">
+    <row r="27" spans="47:47">
+      <c r="AU27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="45:45">
-      <c r="AS32" t="s">
+    <row r="28" spans="47:47">
+      <c r="AU28" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="45:45">
-      <c r="AS33" t="s">
+    <row r="29" spans="47:47">
+      <c r="AU29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="45:45">
-      <c r="AS34" t="s">
+    <row r="30" spans="47:47">
+      <c r="AU30" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="45:45">
-      <c r="AS35" t="s">
+    <row r="31" spans="47:47">
+      <c r="AU31" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="45:45">
-      <c r="AS36" t="s">
+    <row r="32" spans="47:47">
+      <c r="AU32" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="45:45">
-      <c r="AS37" t="s">
+    <row r="33" spans="47:47">
+      <c r="AU33" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="45:45">
-      <c r="AS38" t="s">
+    <row r="34" spans="47:47">
+      <c r="AU34" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="45:45">
-      <c r="AS39" t="s">
+    <row r="35" spans="47:47">
+      <c r="AU35" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="40" spans="45:45">
-      <c r="AS40" t="s">
+    <row r="36" spans="47:47">
+      <c r="AU36" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="45:45">
-      <c r="AS41" t="s">
+    <row r="37" spans="47:47">
+      <c r="AU37" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="45:45">
-      <c r="AS42" t="s">
+    <row r="38" spans="47:47">
+      <c r="AU38" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="45:45">
-      <c r="AS43" t="s">
+    <row r="39" spans="47:47">
+      <c r="AU39" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="45:45">
-      <c r="AS44" t="s">
+    <row r="40" spans="47:47">
+      <c r="AU40" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="45:45">
-      <c r="AS45" t="s">
+    <row r="41" spans="47:47">
+      <c r="AU41" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="45:45">
-      <c r="AS46" t="s">
+    <row r="42" spans="47:47">
+      <c r="AU42" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="47" spans="45:45">
-      <c r="AS47" t="s">
+    <row r="43" spans="47:47">
+      <c r="AU43" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="45:45">
-      <c r="AS48" t="s">
+    <row r="44" spans="47:47">
+      <c r="AU44" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="45:45">
-      <c r="AS49" t="s">
+    <row r="45" spans="47:47">
+      <c r="AU45" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="45:45">
-      <c r="AS50" t="s">
+    <row r="46" spans="47:47">
+      <c r="AU46" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="45:45">
-      <c r="AS51" t="s">
+    <row r="47" spans="47:47">
+      <c r="AU47" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="45:45">
-      <c r="AS52" t="s">
+    <row r="48" spans="47:47">
+      <c r="AU48" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="45:45">
-      <c r="AS53" t="s">
+    <row r="49" spans="47:47">
+      <c r="AU49" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="45:45">
-      <c r="AS54" t="s">
+    <row r="50" spans="47:47">
+      <c r="AU50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="45:45">
-      <c r="AS55" t="s">
+    <row r="51" spans="47:47">
+      <c r="AU51" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="45:45">
-      <c r="AS56" t="s">
+    <row r="52" spans="47:47">
+      <c r="AU52" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="45:45">
-      <c r="AS57" t="s">
+    <row r="53" spans="47:47">
+      <c r="AU53" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="45:45">
-      <c r="AS58" t="s">
+    <row r="54" spans="47:47">
+      <c r="AU54" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="45:45">
-      <c r="AS59" t="s">
+    <row r="55" spans="47:47">
+      <c r="AU55" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="45:45">
-      <c r="AS60" t="s">
+    <row r="56" spans="47:47">
+      <c r="AU56" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="61" spans="45:45">
-      <c r="AS61" t="s">
+    <row r="57" spans="47:47">
+      <c r="AU57" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="45:45">
-      <c r="AS62" t="s">
+    <row r="58" spans="47:47">
+      <c r="AU58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="45:45">
-      <c r="AS63" t="s">
+    <row r="59" spans="47:47">
+      <c r="AU59" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="45:45">
-      <c r="AS64" t="s">
+    <row r="60" spans="47:47">
+      <c r="AU60" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="45:45">
-      <c r="AS65" t="s">
+    <row r="61" spans="47:47">
+      <c r="AU61" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="45:45">
-      <c r="AS66" t="s">
+    <row r="62" spans="47:47">
+      <c r="AU62" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="45:45">
-      <c r="AS67" t="s">
+    <row r="63" spans="47:47">
+      <c r="AU63" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="68" spans="45:45">
-      <c r="AS68" t="s">
+    <row r="64" spans="47:47">
+      <c r="AU64" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="45:45">
-      <c r="AS69" t="s">
+    <row r="65" spans="47:47">
+      <c r="AU65" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="45:45">
-      <c r="AS70" t="s">
+    <row r="66" spans="47:47">
+      <c r="AU66" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="45:45">
-      <c r="AS71" t="s">
+    <row r="67" spans="47:47">
+      <c r="AU67" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="45:45">
-      <c r="AS72" t="s">
+    <row r="68" spans="47:47">
+      <c r="AU68" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="45:45">
-      <c r="AS73" t="s">
+    <row r="69" spans="47:47">
+      <c r="AU69" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="74" spans="45:45">
-      <c r="AS74" t="s">
+    <row r="70" spans="47:47">
+      <c r="AU70" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="75" spans="45:45">
-      <c r="AS75" t="s">
+    <row r="71" spans="47:47">
+      <c r="AU71" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="45:45">
-      <c r="AS76" t="s">
+    <row r="72" spans="47:47">
+      <c r="AU72" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="45:45">
-      <c r="AS77" t="s">
+    <row r="73" spans="47:47">
+      <c r="AU73" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="45:45">
-      <c r="AS78" t="s">
+    <row r="74" spans="47:47">
+      <c r="AU74" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="45:45">
-      <c r="AS79" t="s">
+    <row r="75" spans="47:47">
+      <c r="AU75" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="45:45">
-      <c r="AS80" t="s">
+    <row r="76" spans="47:47">
+      <c r="AU76" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="81" spans="45:45">
-      <c r="AS81" t="s">
+    <row r="77" spans="47:47">
+      <c r="AU77" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="45:45">
-      <c r="AS82" t="s">
+    <row r="78" spans="47:47">
+      <c r="AU78" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="45:45">
-      <c r="AS83" t="s">
+    <row r="79" spans="47:47">
+      <c r="AU79" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="45:45">
-      <c r="AS84" t="s">
+    <row r="80" spans="47:47">
+      <c r="AU80" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="85" spans="45:45">
-      <c r="AS85" t="s">
+    <row r="81" spans="47:47">
+      <c r="AU81" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="45:45">
-      <c r="AS86" t="s">
+    <row r="82" spans="47:47">
+      <c r="AU82" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="87" spans="45:45">
-      <c r="AS87" t="s">
+    <row r="83" spans="47:47">
+      <c r="AU83" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="45:45">
-      <c r="AS88" t="s">
+    <row r="84" spans="47:47">
+      <c r="AU84" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="45:45">
-      <c r="AS89" t="s">
+    <row r="85" spans="47:47">
+      <c r="AU85" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="90" spans="45:45">
-      <c r="AS90" t="s">
+    <row r="86" spans="47:47">
+      <c r="AU86" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="91" spans="45:45">
-      <c r="AS91" t="s">
+    <row r="87" spans="47:47">
+      <c r="AU87" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="45:45">
-      <c r="AS92" t="s">
+    <row r="88" spans="47:47">
+      <c r="AU88" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="45:45">
-      <c r="AS93" t="s">
+    <row r="89" spans="47:47">
+      <c r="AU89" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="94" spans="45:45">
-      <c r="AS94" t="s">
+    <row r="90" spans="47:47">
+      <c r="AU90" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="45:45">
-      <c r="AS95" t="s">
+    <row r="91" spans="47:47">
+      <c r="AU91" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="45:45">
-      <c r="AS96" t="s">
+    <row r="92" spans="47:47">
+      <c r="AU92" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="45:45">
-      <c r="AS97" t="s">
+    <row r="93" spans="47:47">
+      <c r="AU93" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="45:45">
-      <c r="AS98" t="s">
+    <row r="94" spans="47:47">
+      <c r="AU94" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="99" spans="45:45">
-      <c r="AS99" t="s">
+    <row r="95" spans="47:47">
+      <c r="AU95" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="100" spans="45:45">
-      <c r="AS100" t="s">
+    <row r="96" spans="47:47">
+      <c r="AU96" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="45:45">
-      <c r="AS101" t="s">
+    <row r="97" spans="47:47">
+      <c r="AU97" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="102" spans="45:45">
-      <c r="AS102" t="s">
+    <row r="98" spans="47:47">
+      <c r="AU98" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="45:45">
-      <c r="AS103" t="s">
+    <row r="99" spans="47:47">
+      <c r="AU99" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="45:45">
-      <c r="AS104" t="s">
+    <row r="100" spans="47:47">
+      <c r="AU100" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="45:45">
-      <c r="AS105" t="s">
+    <row r="101" spans="47:47">
+      <c r="AU101" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="45:45">
-      <c r="AS106" t="s">
+    <row r="102" spans="47:47">
+      <c r="AU102" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="45:45">
-      <c r="AS107" t="s">
+    <row r="103" spans="47:47">
+      <c r="AU103" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="45:45">
-      <c r="AS108" t="s">
+    <row r="104" spans="47:47">
+      <c r="AU104" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="45:45">
-      <c r="AS109" t="s">
+    <row r="105" spans="47:47">
+      <c r="AU105" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="110" spans="45:45">
-      <c r="AS110" t="s">
+    <row r="106" spans="47:47">
+      <c r="AU106" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="111" spans="45:45">
-      <c r="AS111" t="s">
+    <row r="107" spans="47:47">
+      <c r="AU107" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="112" spans="45:45">
-      <c r="AS112" t="s">
+    <row r="108" spans="47:47">
+      <c r="AU108" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="45:45">
-      <c r="AS113" t="s">
+    <row r="109" spans="47:47">
+      <c r="AU109" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="45:45">
-      <c r="AS114" t="s">
+    <row r="110" spans="47:47">
+      <c r="AU110" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="115" spans="45:45">
-      <c r="AS115" t="s">
+    <row r="111" spans="47:47">
+      <c r="AU111" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="45:45">
-      <c r="AS116" t="s">
+    <row r="112" spans="47:47">
+      <c r="AU112" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="117" spans="45:45">
-      <c r="AS117" t="s">
+    <row r="113" spans="47:47">
+      <c r="AU113" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="45:45">
-      <c r="AS118" t="s">
+    <row r="114" spans="47:47">
+      <c r="AU114" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="119" spans="45:45">
-      <c r="AS119" t="s">
+    <row r="115" spans="47:47">
+      <c r="AU115" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="120" spans="45:45">
-      <c r="AS120" t="s">
+    <row r="116" spans="47:47">
+      <c r="AU116" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="45:45">
-      <c r="AS121" t="s">
+    <row r="117" spans="47:47">
+      <c r="AU117" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="45:45">
-      <c r="AS122" t="s">
+    <row r="118" spans="47:47">
+      <c r="AU118" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="45:45">
-      <c r="AS123" t="s">
+    <row r="119" spans="47:47">
+      <c r="AU119" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="124" spans="45:45">
-      <c r="AS124" t="s">
+    <row r="120" spans="47:47">
+      <c r="AU120" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="125" spans="45:45">
-      <c r="AS125" t="s">
+    <row r="121" spans="47:47">
+      <c r="AU121" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="126" spans="45:45">
-      <c r="AS126" t="s">
+    <row r="122" spans="47:47">
+      <c r="AU122" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="127" spans="45:45">
-      <c r="AS127" t="s">
+    <row r="123" spans="47:47">
+      <c r="AU123" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="128" spans="45:45">
-      <c r="AS128" t="s">
+    <row r="124" spans="47:47">
+      <c r="AU124" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="129" spans="45:45">
-      <c r="AS129" t="s">
+    <row r="125" spans="47:47">
+      <c r="AU125" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="130" spans="45:45">
-      <c r="AS130" t="s">
+    <row r="126" spans="47:47">
+      <c r="AU126" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="131" spans="45:45">
-      <c r="AS131" t="s">
+    <row r="127" spans="47:47">
+      <c r="AU127" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="132" spans="45:45">
-      <c r="AS132" t="s">
+    <row r="128" spans="47:47">
+      <c r="AU128" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="133" spans="45:45">
-      <c r="AS133" t="s">
+    <row r="129" spans="47:47">
+      <c r="AU129" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="134" spans="45:45">
-      <c r="AS134" t="s">
+    <row r="130" spans="47:47">
+      <c r="AU130" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="135" spans="45:45">
-      <c r="AS135" t="s">
+    <row r="131" spans="47:47">
+      <c r="AU131" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="45:45">
-      <c r="AS136" t="s">
+    <row r="132" spans="47:47">
+      <c r="AU132" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="137" spans="45:45">
-      <c r="AS137" t="s">
+    <row r="133" spans="47:47">
+      <c r="AU133" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="45:45">
-      <c r="AS138" t="s">
+    <row r="134" spans="47:47">
+      <c r="AU134" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="45:45">
-      <c r="AS139" t="s">
+    <row r="135" spans="47:47">
+      <c r="AU135" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="140" spans="45:45">
-      <c r="AS140" t="s">
+    <row r="136" spans="47:47">
+      <c r="AU136" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="141" spans="45:45">
-      <c r="AS141" t="s">
+    <row r="137" spans="47:47">
+      <c r="AU137" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="142" spans="45:45">
-      <c r="AS142" t="s">
+    <row r="138" spans="47:47">
+      <c r="AU138" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="143" spans="45:45">
-      <c r="AS143" t="s">
+    <row r="139" spans="47:47">
+      <c r="AU139" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="45:45">
-      <c r="AS144" t="s">
+    <row r="140" spans="47:47">
+      <c r="AU140" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="145" spans="45:45">
-      <c r="AS145" t="s">
+    <row r="141" spans="47:47">
+      <c r="AU141" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="146" spans="45:45">
-      <c r="AS146" t="s">
+    <row r="142" spans="47:47">
+      <c r="AU142" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="147" spans="45:45">
-      <c r="AS147" t="s">
+    <row r="143" spans="47:47">
+      <c r="AU143" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="148" spans="45:45">
-      <c r="AS148" t="s">
+    <row r="144" spans="47:47">
+      <c r="AU144" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="149" spans="45:45">
-      <c r="AS149" t="s">
+    <row r="145" spans="47:47">
+      <c r="AU145" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="150" spans="45:45">
-      <c r="AS150" t="s">
+    <row r="146" spans="47:47">
+      <c r="AU146" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="151" spans="45:45">
-      <c r="AS151" t="s">
+    <row r="147" spans="47:47">
+      <c r="AU147" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="152" spans="45:45">
-      <c r="AS152" t="s">
+    <row r="148" spans="47:47">
+      <c r="AU148" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="153" spans="45:45">
-      <c r="AS153" t="s">
+    <row r="149" spans="47:47">
+      <c r="AU149" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="154" spans="45:45">
-      <c r="AS154" t="s">
+    <row r="150" spans="47:47">
+      <c r="AU150" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="155" spans="45:45">
-      <c r="AS155" t="s">
+    <row r="151" spans="47:47">
+      <c r="AU151" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="156" spans="45:45">
-      <c r="AS156" t="s">
+    <row r="152" spans="47:47">
+      <c r="AU152" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="45:45">
-      <c r="AS157" t="s">
+    <row r="153" spans="47:47">
+      <c r="AU153" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="158" spans="45:45">
-      <c r="AS158" t="s">
+    <row r="154" spans="47:47">
+      <c r="AU154" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="159" spans="45:45">
-      <c r="AS159" t="s">
+    <row r="155" spans="47:47">
+      <c r="AU155" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="160" spans="45:45">
-      <c r="AS160" t="s">
+    <row r="156" spans="47:47">
+      <c r="AU156" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="161" spans="45:45">
-      <c r="AS161" t="s">
+    <row r="157" spans="47:47">
+      <c r="AU157" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="162" spans="45:45">
-      <c r="AS162" t="s">
+    <row r="158" spans="47:47">
+      <c r="AU158" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="163" spans="45:45">
-      <c r="AS163" t="s">
+    <row r="159" spans="47:47">
+      <c r="AU159" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="164" spans="45:45">
-      <c r="AS164" t="s">
+    <row r="160" spans="47:47">
+      <c r="AU160" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="165" spans="45:45">
-      <c r="AS165" t="s">
+    <row r="161" spans="47:47">
+      <c r="AU161" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="166" spans="45:45">
-      <c r="AS166" t="s">
+    <row r="162" spans="47:47">
+      <c r="AU162" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="167" spans="45:45">
-      <c r="AS167" t="s">
+    <row r="163" spans="47:47">
+      <c r="AU163" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="168" spans="45:45">
-      <c r="AS168" t="s">
+    <row r="164" spans="47:47">
+      <c r="AU164" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="169" spans="45:45">
-      <c r="AS169" t="s">
+    <row r="165" spans="47:47">
+      <c r="AU165" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="45:45">
-      <c r="AS170" t="s">
+    <row r="166" spans="47:47">
+      <c r="AU166" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="171" spans="45:45">
-      <c r="AS171" t="s">
+    <row r="167" spans="47:47">
+      <c r="AU167" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="45:45">
-      <c r="AS172" t="s">
+    <row r="168" spans="47:47">
+      <c r="AU168" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="173" spans="45:45">
-      <c r="AS173" t="s">
+    <row r="169" spans="47:47">
+      <c r="AU169" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="174" spans="45:45">
-      <c r="AS174" t="s">
+    <row r="170" spans="47:47">
+      <c r="AU170" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="175" spans="45:45">
-      <c r="AS175" t="s">
+    <row r="171" spans="47:47">
+      <c r="AU171" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="176" spans="45:45">
-      <c r="AS176" t="s">
+    <row r="172" spans="47:47">
+      <c r="AU172" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="45:45">
-      <c r="AS177" t="s">
+    <row r="173" spans="47:47">
+      <c r="AU173" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="178" spans="45:45">
-      <c r="AS178" t="s">
+    <row r="174" spans="47:47">
+      <c r="AU174" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="179" spans="45:45">
-      <c r="AS179" t="s">
+    <row r="175" spans="47:47">
+      <c r="AU175" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="180" spans="45:45">
-      <c r="AS180" t="s">
+    <row r="176" spans="47:47">
+      <c r="AU176" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="181" spans="45:45">
-      <c r="AS181" t="s">
+    <row r="177" spans="47:47">
+      <c r="AU177" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="182" spans="45:45">
-      <c r="AS182" t="s">
+    <row r="178" spans="47:47">
+      <c r="AU178" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="183" spans="45:45">
-      <c r="AS183" t="s">
+    <row r="179" spans="47:47">
+      <c r="AU179" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="45:45">
-      <c r="AS184" t="s">
+    <row r="180" spans="47:47">
+      <c r="AU180" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="185" spans="45:45">
-      <c r="AS185" t="s">
+    <row r="181" spans="47:47">
+      <c r="AU181" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="45:45">
-      <c r="AS186" t="s">
+    <row r="182" spans="47:47">
+      <c r="AU182" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="187" spans="45:45">
-      <c r="AS187" t="s">
+    <row r="183" spans="47:47">
+      <c r="AU183" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="188" spans="45:45">
-      <c r="AS188" t="s">
+    <row r="184" spans="47:47">
+      <c r="AU184" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="189" spans="45:45">
-      <c r="AS189" t="s">
+    <row r="185" spans="47:47">
+      <c r="AU185" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="190" spans="45:45">
-      <c r="AS190" t="s">
+    <row r="186" spans="47:47">
+      <c r="AU186" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="191" spans="45:45">
-      <c r="AS191" t="s">
+    <row r="187" spans="47:47">
+      <c r="AU187" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="192" spans="45:45">
-      <c r="AS192" t="s">
+    <row r="188" spans="47:47">
+      <c r="AU188" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="193" spans="45:45">
-      <c r="AS193" t="s">
+    <row r="189" spans="47:47">
+      <c r="AU189" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="194" spans="45:45">
-      <c r="AS194" t="s">
+    <row r="190" spans="47:47">
+      <c r="AU190" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="195" spans="45:45">
-      <c r="AS195" t="s">
+    <row r="191" spans="47:47">
+      <c r="AU191" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="196" spans="45:45">
-      <c r="AS196" t="s">
+    <row r="192" spans="47:47">
+      <c r="AU192" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="197" spans="45:45">
-      <c r="AS197" t="s">
+    <row r="193" spans="47:47">
+      <c r="AU193" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="198" spans="45:45">
-      <c r="AS198" t="s">
+    <row r="194" spans="47:47">
+      <c r="AU194" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="199" spans="45:45">
-      <c r="AS199" t="s">
+    <row r="195" spans="47:47">
+      <c r="AU195" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="200" spans="45:45">
-      <c r="AS200" t="s">
+    <row r="196" spans="47:47">
+      <c r="AU196" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="201" spans="45:45">
-      <c r="AS201" t="s">
+    <row r="197" spans="47:47">
+      <c r="AU197" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="202" spans="45:45">
-      <c r="AS202" t="s">
+    <row r="198" spans="47:47">
+      <c r="AU198" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="203" spans="45:45">
-      <c r="AS203" t="s">
+    <row r="199" spans="47:47">
+      <c r="AU199" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="204" spans="45:45">
-      <c r="AS204" t="s">
+    <row r="200" spans="47:47">
+      <c r="AU200" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="205" spans="45:45">
-      <c r="AS205" t="s">
+    <row r="201" spans="47:47">
+      <c r="AU201" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="206" spans="45:45">
-      <c r="AS206" t="s">
+    <row r="202" spans="47:47">
+      <c r="AU202" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="207" spans="45:45">
-      <c r="AS207" t="s">
+    <row r="203" spans="47:47">
+      <c r="AU203" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="208" spans="45:45">
-      <c r="AS208" t="s">
+    <row r="204" spans="47:47">
+      <c r="AU204" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="209" spans="45:45">
-      <c r="AS209" t="s">
+    <row r="205" spans="47:47">
+      <c r="AU205" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="210" spans="45:45">
-      <c r="AS210" t="s">
+    <row r="206" spans="47:47">
+      <c r="AU206" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="211" spans="45:45">
-      <c r="AS211" t="s">
+    <row r="207" spans="47:47">
+      <c r="AU207" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="212" spans="45:45">
-      <c r="AS212" t="s">
+    <row r="208" spans="47:47">
+      <c r="AU208" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="213" spans="45:45">
-      <c r="AS213" t="s">
+    <row r="209" spans="47:47">
+      <c r="AU209" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="214" spans="45:45">
-      <c r="AS214" t="s">
+    <row r="210" spans="47:47">
+      <c r="AU210" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="45:45">
-      <c r="AS215" t="s">
+    <row r="211" spans="47:47">
+      <c r="AU211" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="216" spans="45:45">
-      <c r="AS216" t="s">
+    <row r="212" spans="47:47">
+      <c r="AU212" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="217" spans="45:45">
-      <c r="AS217" t="s">
+    <row r="213" spans="47:47">
+      <c r="AU213" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="218" spans="45:45">
-      <c r="AS218" t="s">
+    <row r="214" spans="47:47">
+      <c r="AU214" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="219" spans="45:45">
-      <c r="AS219" t="s">
+    <row r="215" spans="47:47">
+      <c r="AU215" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="220" spans="45:45">
-      <c r="AS220" t="s">
+    <row r="216" spans="47:47">
+      <c r="AU216" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="221" spans="45:45">
-      <c r="AS221" t="s">
+    <row r="217" spans="47:47">
+      <c r="AU217" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="222" spans="45:45">
-      <c r="AS222" t="s">
+    <row r="218" spans="47:47">
+      <c r="AU218" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="223" spans="45:45">
-      <c r="AS223" t="s">
+    <row r="219" spans="47:47">
+      <c r="AU219" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="224" spans="45:45">
-      <c r="AS224" t="s">
+    <row r="220" spans="47:47">
+      <c r="AU220" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="225" spans="45:45">
-      <c r="AS225" t="s">
+    <row r="221" spans="47:47">
+      <c r="AU221" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="226" spans="45:45">
-      <c r="AS226" t="s">
+    <row r="222" spans="47:47">
+      <c r="AU222" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="227" spans="45:45">
-      <c r="AS227" t="s">
+    <row r="223" spans="47:47">
+      <c r="AU223" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="45:45">
-      <c r="AS228" t="s">
+    <row r="224" spans="47:47">
+      <c r="AU224" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="229" spans="45:45">
-      <c r="AS229" t="s">
+    <row r="225" spans="47:47">
+      <c r="AU225" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="230" spans="45:45">
-      <c r="AS230" t="s">
+    <row r="226" spans="47:47">
+      <c r="AU226" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="231" spans="45:45">
-      <c r="AS231" t="s">
+    <row r="227" spans="47:47">
+      <c r="AU227" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="232" spans="45:45">
-      <c r="AS232" t="s">
+    <row r="228" spans="47:47">
+      <c r="AU228" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="233" spans="45:45">
-      <c r="AS233" t="s">
+    <row r="229" spans="47:47">
+      <c r="AU229" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="234" spans="45:45">
-      <c r="AS234" t="s">
+    <row r="230" spans="47:47">
+      <c r="AU230" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="235" spans="45:45">
-      <c r="AS235" t="s">
+    <row r="231" spans="47:47">
+      <c r="AU231" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="236" spans="45:45">
-      <c r="AS236" t="s">
+    <row r="232" spans="47:47">
+      <c r="AU232" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="237" spans="45:45">
-      <c r="AS237" t="s">
+    <row r="233" spans="47:47">
+      <c r="AU233" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="238" spans="45:45">
-      <c r="AS238" t="s">
+    <row r="234" spans="47:47">
+      <c r="AU234" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="239" spans="45:45">
-      <c r="AS239" t="s">
+    <row r="235" spans="47:47">
+      <c r="AU235" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="240" spans="45:45">
-      <c r="AS240" t="s">
+    <row r="236" spans="47:47">
+      <c r="AU236" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="241" spans="45:45">
-      <c r="AS241" t="s">
+    <row r="237" spans="47:47">
+      <c r="AU237" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="242" spans="45:45">
-      <c r="AS242" t="s">
+    <row r="238" spans="47:47">
+      <c r="AU238" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="45:45">
-      <c r="AS243" t="s">
+    <row r="239" spans="47:47">
+      <c r="AU239" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="244" spans="45:45">
-      <c r="AS244" t="s">
+    <row r="240" spans="47:47">
+      <c r="AU240" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="245" spans="45:45">
-      <c r="AS245" t="s">
+    <row r="241" spans="47:47">
+      <c r="AU241" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="246" spans="45:45">
-      <c r="AS246" t="s">
+    <row r="242" spans="47:47">
+      <c r="AU242" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="247" spans="45:45">
-      <c r="AS247" t="s">
+    <row r="243" spans="47:47">
+      <c r="AU243" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="248" spans="45:45">
-      <c r="AS248" t="s">
+    <row r="244" spans="47:47">
+      <c r="AU244" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="249" spans="45:45">
-      <c r="AS249" t="s">
+    <row r="245" spans="47:47">
+      <c r="AU245" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="250" spans="45:45">
-      <c r="AS250" t="s">
+    <row r="246" spans="47:47">
+      <c r="AU246" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="251" spans="45:45">
-      <c r="AS251" t="s">
+    <row r="247" spans="47:47">
+      <c r="AU247" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="252" spans="45:45">
-      <c r="AS252" t="s">
+    <row r="248" spans="47:47">
+      <c r="AU248" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="45:45">
-      <c r="AS253" t="s">
+    <row r="249" spans="47:47">
+      <c r="AU249" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="254" spans="45:45">
-      <c r="AS254" t="s">
+    <row r="250" spans="47:47">
+      <c r="AU250" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="255" spans="45:45">
-      <c r="AS255" t="s">
+    <row r="251" spans="47:47">
+      <c r="AU251" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="256" spans="45:45">
-      <c r="AS256" t="s">
+    <row r="252" spans="47:47">
+      <c r="AU252" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="257" spans="45:45">
-      <c r="AS257" t="s">
+    <row r="253" spans="47:47">
+      <c r="AU253" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="258" spans="45:45">
-      <c r="AS258" t="s">
+    <row r="254" spans="47:47">
+      <c r="AU254" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="259" spans="45:45">
-      <c r="AS259" t="s">
+    <row r="255" spans="47:47">
+      <c r="AU255" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="260" spans="45:45">
-      <c r="AS260" t="s">
+    <row r="256" spans="47:47">
+      <c r="AU256" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="261" spans="45:45">
-      <c r="AS261" t="s">
+    <row r="257" spans="47:47">
+      <c r="AU257" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="262" spans="45:45">
-      <c r="AS262" t="s">
+    <row r="258" spans="47:47">
+      <c r="AU258" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="263" spans="45:45">
-      <c r="AS263" t="s">
+    <row r="259" spans="47:47">
+      <c r="AU259" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="264" spans="45:45">
-      <c r="AS264" t="s">
+    <row r="260" spans="47:47">
+      <c r="AU260" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="265" spans="45:45">
-      <c r="AS265" t="s">
+    <row r="261" spans="47:47">
+      <c r="AU261" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="266" spans="45:45">
-      <c r="AS266" t="s">
+    <row r="262" spans="47:47">
+      <c r="AU262" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="267" spans="45:45">
-      <c r="AS267" t="s">
+    <row r="263" spans="47:47">
+      <c r="AU263" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="268" spans="45:45">
-      <c r="AS268" t="s">
+    <row r="264" spans="47:47">
+      <c r="AU264" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="269" spans="45:45">
-      <c r="AS269" t="s">
+    <row r="265" spans="47:47">
+      <c r="AU265" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="45:45">
-      <c r="AS270" t="s">
+    <row r="266" spans="47:47">
+      <c r="AU266" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="271" spans="45:45">
-      <c r="AS271" t="s">
+    <row r="267" spans="47:47">
+      <c r="AU267" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="272" spans="45:45">
-      <c r="AS272" t="s">
+    <row r="268" spans="47:47">
+      <c r="AU268" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="273" spans="45:45">
-      <c r="AS273" t="s">
+    <row r="269" spans="47:47">
+      <c r="AU269" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="274" spans="45:45">
-      <c r="AS274" t="s">
+    <row r="270" spans="47:47">
+      <c r="AU270" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="275" spans="45:45">
-      <c r="AS275" t="s">
+    <row r="271" spans="47:47">
+      <c r="AU271" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="276" spans="45:45">
-      <c r="AS276" t="s">
+    <row r="272" spans="47:47">
+      <c r="AU272" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="277" spans="45:45">
-      <c r="AS277" t="s">
+    <row r="273" spans="47:47">
+      <c r="AU273" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="278" spans="45:45">
-      <c r="AS278" t="s">
+    <row r="274" spans="47:47">
+      <c r="AU274" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="279" spans="45:45">
-      <c r="AS279" t="s">
+    <row r="275" spans="47:47">
+      <c r="AU275" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="280" spans="45:45">
-      <c r="AS280" t="s">
+    <row r="276" spans="47:47">
+      <c r="AU276" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="281" spans="45:45">
-      <c r="AS281" t="s">
+    <row r="277" spans="47:47">
+      <c r="AU277" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="282" spans="45:45">
-      <c r="AS282" t="s">
+    <row r="278" spans="47:47">
+      <c r="AU278" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="283" spans="45:45">
-      <c r="AS283" t="s">
+    <row r="279" spans="47:47">
+      <c r="AU279" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="45:45">
-      <c r="AS284" t="s">
+    <row r="280" spans="47:47">
+      <c r="AU280" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="285" spans="45:45">
-      <c r="AS285" t="s">
+    <row r="281" spans="47:47">
+      <c r="AU281" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="286" spans="45:45">
-      <c r="AS286" t="s">
+    <row r="282" spans="47:47">
+      <c r="AU282" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="287" spans="45:45">
-      <c r="AS287" t="s">
+    <row r="283" spans="47:47">
+      <c r="AU283" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="288" spans="45:45">
-      <c r="AS288" t="s">
+    <row r="284" spans="47:47">
+      <c r="AU284" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="45:45">
-      <c r="AS289" t="s">
+    <row r="285" spans="47:47">
+      <c r="AU285" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="286" spans="47:47">
+      <c r="AU286" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="287" spans="47:47">
+      <c r="AU287" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="288" spans="47:47">
+      <c r="AU288" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="289" spans="47:47">
+      <c r="AU289" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AF$1:$AF$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="696">
   <si>
     <t>alias</t>
   </si>
@@ -1033,7 +1033,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: No, Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1132,7 +1132,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1354,9 +1354,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1375,6 +1372,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1576,6 +1576,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1585,9 +1588,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1696,6 +1696,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1771,6 +1774,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1792,6 +1798,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1837,6 +1846,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1849,6 +1861,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1858,9 +1873,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1885,6 +1897,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1945,12 +1960,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2107,7 +2122,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3790,55 +3805,55 @@
         <v>366</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -3981,55 +3996,55 @@
         <v>367</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4074,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AU289"/>
+  <dimension ref="G1:AU294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5558,6 +5573,31 @@
         <v>656</v>
       </c>
     </row>
+    <row r="290" spans="47:47">
+      <c r="AU290" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="291" spans="47:47">
+      <c r="AU291" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="292" spans="47:47">
+      <c r="AU292" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="293" spans="47:47">
+      <c r="AU293" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="294" spans="47:47">
+      <c r="AU294" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000047/metadata_template_ERC000047.xlsx
+++ b/templates/ERC000047/metadata_template_ERC000047.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AF$1:$AF$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="696">
   <si>
     <t>alias</t>
   </si>
@@ -1132,7 +1132,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1354,9 +1354,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1375,6 +1372,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1576,6 +1576,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1585,9 +1588,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1696,6 +1696,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1771,6 +1774,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1792,6 +1798,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1837,6 +1846,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1849,6 +1861,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1858,9 +1873,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1885,6 +1897,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1945,12 +1960,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2107,7 +2122,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3790,55 +3805,55 @@
         <v>366</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -3981,55 +3996,55 @@
         <v>367</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4074,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AU289"/>
+  <dimension ref="G1:AU294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5558,6 +5573,31 @@
         <v>656</v>
       </c>
     </row>
+    <row r="290" spans="47:47">
+      <c r="AU290" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="291" spans="47:47">
+      <c r="AU291" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="292" spans="47:47">
+      <c r="AU292" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="293" spans="47:47">
+      <c r="AU293" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="294" spans="47:47">
+      <c r="AU294" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
